--- a/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
+++ b/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/data_valencia_comunity/Resultados salida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81CE5C7D-9E2F-46F1-8BB8-D3603059E9E4}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3211BB-F120-4655-8813-C84C344EA619}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>total_assets</t>
   </si>
@@ -96,6 +96,51 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>0.98596</t>
+  </si>
+  <si>
+    <t>0.98513</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>ranking betas (p=0.96)</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>efff</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +192,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -180,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +267,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,6 +287,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X98"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,9 +583,13 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -538,62 +608,75 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -609,65 +692,78 @@
       <c r="E2">
         <v>16.70692</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <v>460.57785999999999</v>
       </c>
-      <c r="G2">
-        <v>266.72018305345199</v>
-      </c>
-      <c r="H2">
-        <v>74.012977630097694</v>
-      </c>
-      <c r="I2">
-        <v>85.066318292876701</v>
-      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="12"/>
       <c r="J2">
-        <v>16.895654952116999</v>
+        <v>258.53447999999997</v>
       </c>
       <c r="K2">
-        <v>231.10584212803201</v>
+        <v>70</v>
       </c>
       <c r="L2">
-        <v>-3.9901474052531798</v>
+        <v>84.151780000000002</v>
       </c>
       <c r="M2">
+        <v>16.70692</v>
+      </c>
+      <c r="N2" s="12">
+        <v>460.57785999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>265.91310421585501</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>73.617313470299393</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>84.976148334653999</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>16.877046411742</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>253.730900505524</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>-3.5967342178160102</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>249.726191262387</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>65.681804552074695</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>83.167684035040097</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>16.503830302967099</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>707.50299000049995</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <v>4.2936288088642698</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,62 +782,71 @@
       <c r="F3">
         <v>358.13</v>
       </c>
-      <c r="G3">
-        <v>189.60953375458899</v>
-      </c>
-      <c r="H3">
-        <v>263.27057361216799</v>
-      </c>
-      <c r="I3">
-        <v>22.2724528010196</v>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
       </c>
       <c r="J3">
-        <v>20.030787687715101</v>
+        <v>184.97800000000001</v>
       </c>
       <c r="K3">
-        <v>228.29296711867201</v>
+        <v>261</v>
       </c>
       <c r="L3">
-        <v>-2.25765609533383</v>
+        <v>21.754999999999999</v>
       </c>
       <c r="M3">
+        <v>19.923999999999999</v>
+      </c>
+      <c r="N3">
+        <v>358.13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
         <v>189.18922938626801</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>263.064522645392</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>22.2254947771353</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>20.021096873827599</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>240.07547265171399</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>-2.0527773727948699</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>181.015017800565</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>259.05717861850599</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>21.312240355323699</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>19.832626876547199</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>469.22534711397702</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
         <v>1.9317684793701699</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -760,62 +865,71 @@
       <c r="F4">
         <v>356.94675000000001</v>
       </c>
-      <c r="G4">
-        <v>134.872167565279</v>
+      <c r="G4" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>356.91141527063598</v>
-      </c>
-      <c r="I4">
-        <v>6.4188475314820197</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.8462972077609</v>
+        <v>128.93343999999999</v>
       </c>
       <c r="K4">
-        <v>190.464801033887</v>
+        <v>354</v>
       </c>
       <c r="L4">
-        <v>-2.8948519425111798</v>
+        <v>5.75535</v>
       </c>
       <c r="M4">
+        <v>13.70937</v>
+      </c>
+      <c r="N4">
+        <v>356.94675000000001</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
         <v>134.43675112978201</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>356.69795572977301</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>6.37020112921092</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>13.836257960115599</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>202.670947215307</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>-2.6826067939932901</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>130.56050589924001</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>354.79765647662902</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>5.9371320729840997</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>13.7468847012516</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>311.33477352452599</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>-0.79311853039801805</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -834,62 +948,71 @@
       <c r="F5">
         <v>293.93365999999997</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
         <v>103.36555138664001</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>967.58311336234999</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>30.453613541189998</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>36.769893342089702</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>317.77227231816101</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.41451492852264699</v>
       </c>
-      <c r="M5">
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <v>102.657645489882</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>967.236067969994</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>30.374523566131</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>36.753571398249903</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>337.61718894066598</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>0.75958594547310099</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>101.715502551903</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>966.77418967929896</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>30.269263726075899</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>36.731848731164902</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>364.02853561304499</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>1.2188365650969499</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -908,62 +1031,68 @@
       <c r="F6">
         <v>268.27539999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
         <v>149.892303092551</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>1074.36509747897</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>103.38696358202699</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>31.6764286546039</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>361.763182665724</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>1.62560139962094</v>
       </c>
-      <c r="M6">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>149.658066051329</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>1074.2502645806301</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>103.360793717031</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>31.671027931358701</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>368.32961271559901</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>1.7397810022943301</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>145.66611905647301</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>1072.2932434321399</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>102.91479801378</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>31.5789869765368</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>480.236937738969</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>3.68566846479079</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -982,62 +1111,62 @@
       <c r="F7">
         <v>259.06299999999999</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>156.47883410399899</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>752.92521339259304</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>77.691166115307894</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>34.113420400237203</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>377.704446163228</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>2.0629829421198398</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>155.60800123300501</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>752.498294310868</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>77.593873310765701</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>34.093341904946598</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>402.11673852606901</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>2.4874732391556198</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>153.43705833281001</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>751.43400633977797</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>77.351327203129898</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>34.0432872179341</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>462.97536541976802</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>3.5457063711911401</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1056,62 +1185,62 @@
       <c r="F8">
         <v>193.64809</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>116.36346033663401</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>773.30930165538098</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>53.924967982301098</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>24.529224512865799</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>290.32641629882897</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>1.6810797952747401</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>116.091443127473</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>773.17594732182704</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>53.894577171337801</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>24.522952705226199</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>297.95194796965097</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>1.8136754628954701</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>114.799361383959</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>772.54251423744597</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>53.750220819262204</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>24.493161618938199</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>334.17322340605699</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>2.44350488409389</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1130,62 +1259,62 @@
       <c r="F9">
         <v>189.37</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>253.121296562775</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>643.20380349093602</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>140.05176026988801</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>27.740491663075801</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>349.26345429913499</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>2.7802886718180502</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>251.95483387765799</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>642.63195417864699</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>139.921438563154</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>27.713596932399099</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>381.963216845891</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>3.3488846770666298</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>243.017935151686</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>638.25070867834097</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>138.92297379463099</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>27.507541918907101</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>632.49370528103304</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>7.7052048403557398</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1204,62 +1333,62 @@
       <c r="F10">
         <v>170.17626999999999</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>53.593206727672097</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>442.08944309756299</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>25.010303651566201</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>19.251866611721201</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>165.06169175550701</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>-8.8934246974778294E-2</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>53.427918492939</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>442.00841181849398</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>24.991837012960101</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>19.248055617495801</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>169.69526134715301</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>-8.3639628302428493E-3</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>53.009975385113698</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>441.80351844141899</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>24.945142798198798</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>19.2384192463829</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>181.41157302888499</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>0.195363755649511</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1278,62 +1407,62 @@
       <c r="F11">
         <v>167.72279</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>89.257051291407194</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>698.77303208959802</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>22.923309916952999</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>21.6928742883902</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>237.883859464354</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>1.2199875691561599</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>89.106875123849605</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>698.69940938461502</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>22.906531656733598</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>21.689411727922501</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>242.09378840762099</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>1.2931914273217699</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>88.667208419459399</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>698.48386618228994</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>22.857410398041299</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>21.679274483282899</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>254.41908352139799</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>1.5075083831462299</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1352,62 +1481,62 @@
       <c r="F12">
         <v>161.14993999999999</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>117.23920059045</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>687.061577459369</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>79.565542829990804</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>22.8518737590908</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>271.99375047900202</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>1.92739466394518</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>116.868010440449</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>686.87960435837397</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>79.524072035863895</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>22.843315354916001</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>282.39942390481201</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>2.1083325020526198</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>114.43071735628401</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>685.68474026901197</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>79.251768259159803</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>22.787119522923199</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>350.72471722619002</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>3.2963988919667599</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1426,62 +1555,62 @@
       <c r="F13">
         <v>127.74166</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>86.211997774043596</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>299.460408854045</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>22.197029774157802</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>11.052922407976901</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>158.59682055693801</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>0.53652135879865803</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>84.740460232819302</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>298.73899895238901</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>22.032623928738399</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>11.018993670815499</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>199.84882869284499</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>1.2538270884968701</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>83.762426135298199</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>298.259525298239</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>21.9233541900145</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>10.9964434735558</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>227.26632190512501</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>1.73057296982067</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1500,62 +1629,62 @@
       <c r="F14">
         <v>120.93779000000001</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>35.738841861255402</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>683.00130877863296</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>12.024593075997799</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>20.449780403550999</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>178.045431986176</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>0.99300956868041201</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>35.480519962972501</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>682.87466846534403</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>11.995732357947499</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>20.443824364004399</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>185.28703931940501</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>1.1189294127577301</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>34.916650956482798</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>682.59823604474798</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>11.9327347393882</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>20.430823429418201</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>201.094131012047</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>1.39378918209652</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1574,62 +1703,62 @@
       <c r="F15">
         <v>112.76600000000001</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>85.559480485681405</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>379.62902793079502</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>31.616562062058598</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>14.6705216072239</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>191.16158456722101</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>1.36317247412159</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>84.722177513733101</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>379.21854662282402</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>31.523015347062199</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>14.6512161993333</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>214.63392424147199</v>
       </c>
-      <c r="R15">
+      <c r="V15">
         <v>1.7713185135166201</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>84.025133415258495</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>378.87682614309102</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>31.445138893968799</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>14.6351446922568</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>234.17434914795399</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>2.1110949117947202</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1648,62 +1777,62 @@
       <c r="F16">
         <v>106.79303</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>94.327085084158597</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>232.57732541384499</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>6.1614944955752797</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>9.1727011282164401</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>130.96261157470701</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>0.42026994881868601</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>93.954005925760896</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>232.39442624108901</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>6.11981265414994</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>9.1640991698218794</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>141.42124008156401</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>0.60212859017349396</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>91.208332220793494</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>231.04838093677799</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>5.8130554059892701</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>9.1007931114598506</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>218.39145038392701</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>1.94051611022015</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1722,62 +1851,62 @@
       <c r="F17">
         <v>106.55417</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>55.099973894461797</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>674.06011433544302</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>27.107104579443401</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>11.179116096503201</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>160.29916433966699</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>0.93453856247266298</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>54.938463676522503</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>673.98093519989504</v>
       </c>
-      <c r="O17">
+      <c r="S17">
         <v>27.089060035433899</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>11.175392210717201</v>
       </c>
-      <c r="Q17">
+      <c r="U17">
         <v>164.82682376921801</v>
       </c>
-      <c r="R17">
+      <c r="V17">
         <v>1.01326724012247</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>54.400096283391697</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>673.71700474807005</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>27.028911555402399</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>11.1629792580972</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>179.919021867721</v>
       </c>
-      <c r="X17">
+      <c r="AB17">
         <v>1.27569616562181</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1796,62 +1925,62 @@
       <c r="F18">
         <v>104.98694</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>37.458267865461401</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>77.821502824468993</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>7.0015265409167702</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>2.9857162224093501</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>58.011370187555698</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>-0.81682921401769504</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>37.050714303819298</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>77.621702842078193</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>6.9559930862964299</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>2.9763193995049</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>69.436428923527302</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>-0.61816591339845495</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>36.261108793894103</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>77.234604846067199</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>6.8677753155835601</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>2.9581137356622298</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>91.571652801331098</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>-0.233270155999417</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1870,62 +1999,62 @@
       <c r="F19">
         <v>93.702399999999997</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>26.851798758971199</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>185.42375500320901</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>2.7760317262727998</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>6.3218296850398996</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>69.471037497404197</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>-0.421344219273947</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>26.743653028245799</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>185.37073739490401</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>2.7639492684419098</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>6.3193362059609699</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>72.502715887366605</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>-0.36862823336223699</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>26.500443197138399</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>185.251505655702</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>2.7367769287785602</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>6.3137286001720998</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>79.320682572216398</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>-0.250074815263849</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1944,62 +2073,62 @@
       <c r="F20">
         <v>87.709950000000006</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>54.771565559728103</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>425.85776765571001</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>13.6040107447525</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>15.7742894994945</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>153.02562954851899</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>1.13573407202216</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>54.624222904766</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>425.785534058368</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>13.5875490554808</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>15.7708922703564</v>
       </c>
-      <c r="Q20">
+      <c r="U20">
         <v>157.15612587021499</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>1.2075567253167201</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>54.2242253767118</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>425.58943836302097</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>13.5428597900539</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>15.761669664330901</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>168.36936428199701</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>1.4025368129464899</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2018,62 +2147,62 @@
       <c r="F21">
         <v>86.428319999999999</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>91.801321633779907</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>50.299661387262901</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>12.0384813882931</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>1.6974534195975099</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>69.292938357752803</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>-0.29795658412688703</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>91.506636323855602</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>50.155194192579401</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>12.0055580097495</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>1.6906589613212999</v>
       </c>
-      <c r="Q21">
+      <c r="U21">
         <v>77.553931001143695</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>-0.15431127753777299</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>86.491319029952393</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>47.696473667677203</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>11.445227432613899</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>1.5750225079665101</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>218.14967118192999</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>2.2904213442192698</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2092,62 +2221,62 @@
       <c r="F22">
         <v>81.399730000000005</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>51.9058597950335</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>510.85614703012902</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>21.6520014119804</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>12.451103279610001</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>146.808080940352</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>1.13734547770505</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>51.758517140071298</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>510.78391343278702</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>21.6355397227086</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>12.447706050471901</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>150.938577262048</v>
       </c>
-      <c r="R22">
+      <c r="V22">
         <v>1.2091681309996101</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>51.325934217169703</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>510.571842999566</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>21.5872098913851</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>12.437732134156199</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>163.06529082189701</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>1.4200320746464501</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2166,62 +2295,62 @@
       <c r="F23">
         <v>80.893169999999998</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>24.895020509160702</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>212.092915866666</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>11.483425078935101</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>8.00561994004517</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>75.580010201579796</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>-9.2387259152401202E-2</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>24.782624509542099</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>212.03781459689901</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <v>11.4708677646829</v>
       </c>
-      <c r="P23">
+      <c r="T23">
         <v>8.0030284639718694</v>
       </c>
-      <c r="Q23">
+      <c r="U23">
         <v>78.7308375238987</v>
       </c>
-      <c r="R23">
+      <c r="V23">
         <v>-3.7599465934117199E-2</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>24.508718291984302</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>211.90353419158399</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>11.4402659064212</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>7.9967131021125697</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>86.409324275768398</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>9.5917004933970207E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2240,62 +2369,62 @@
       <c r="F24">
         <v>79.944609999999997</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>47.052791995225199</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>428.07122719657298</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>27.853547147023601</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>10.9224587471398</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>133.05414336709899</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>0.92348892350427003</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>46.880892231102699</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>427.98695466634098</v>
       </c>
-      <c r="O24">
+      <c r="S24">
         <v>27.834341842873201</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>10.918495313145399</v>
       </c>
-      <c r="Q24">
+      <c r="U24">
         <v>137.87305574241</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>1.0072820190145899</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>46.534259190262297</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>427.81702049823502</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>27.7956146636249</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>10.9105031138269</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>147.59031311460399</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>1.1762494149062701</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2314,62 +2443,62 @@
       <c r="F25">
         <v>74.701719999999995</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>43.258564698280303</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>242.47962484308201</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>23.881779005598698</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>8.3926661580360502</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>104.458062625205</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>0.51741469141581098</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>43.0536072872112</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>242.379146057036</v>
       </c>
-      <c r="O25">
+      <c r="S25">
         <v>23.8588803737271</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>8.3879405251965107</v>
       </c>
-      <c r="Q25">
+      <c r="U25">
         <v>110.203688918846</v>
       </c>
-      <c r="R25">
+      <c r="V25">
         <v>0.61732184375503496</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>42.528462952859002</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>242.12169810753599</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>23.800209224784101</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>8.3758324521145404</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>124.925201450017</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>0.87330514652281599</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2388,62 +2517,62 @@
       <c r="F26">
         <v>72.687579999999997</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>29.916256591795101</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>80.295031028458894</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>10.3819861518013</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>2.92057564849891</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>55.816973762989697</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>-0.29335256789005698</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>29.604570206298298</v>
       </c>
-      <c r="N26">
+      <c r="R26">
         <v>80.142229187928294</v>
       </c>
-      <c r="O26">
+      <c r="S26">
         <v>10.347163347572501</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>2.9133892022452299</v>
       </c>
-      <c r="Q26">
+      <c r="U26">
         <v>64.554562135806904</v>
       </c>
-      <c r="R26">
+      <c r="V26">
         <v>-0.14142003207464701</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>29.120039552480499</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>79.904691781285194</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>10.293029715544201</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>2.9022175448872201</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>78.137540424459203</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>9.4766000874762502E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2462,62 +2591,62 @@
       <c r="F27">
         <v>72.566689999999994</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>28.669291683780099</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>80.360319087594704</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>13.0780249863354</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>2.1839262209891199</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>51.962750549149597</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>-0.35826919682936798</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>28.3642168276726</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>80.210758498226895</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>13.0439408476509</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <v>2.17689221450446</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>60.514996138301001</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <v>-0.20955947237974001</v>
       </c>
-      <c r="S27">
+      <c r="W27">
         <v>27.838600241221201</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>79.953079030786597</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>12.985216936883299</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>2.1647732528675498</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <v>75.249747439733795</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>4.6654031199882803E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2536,62 +2665,62 @@
       <c r="F28">
         <v>72.10136</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>70.705827405149904</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>159.33700979192</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>33.1007477216518</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>8.0039488081992793</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>110.01278510650199</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>0.65921839151019401</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>69.728265559728101</v>
       </c>
-      <c r="N28">
+      <c r="R28">
         <v>158.85776765571001</v>
       </c>
-      <c r="O28">
+      <c r="S28">
         <v>32.991530744752502</v>
       </c>
-      <c r="P28">
+      <c r="T28">
         <v>7.9814094994945304</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>137.417039548519</v>
       </c>
-      <c r="R28">
+      <c r="V28">
         <v>1.13573407202216</v>
       </c>
-      <c r="S28">
+      <c r="W28">
         <v>68.0144626915949</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>158.017589050732</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>32.800058083318902</v>
       </c>
-      <c r="V28">
+      <c r="Z28">
         <v>7.9418949336541802</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
         <v>185.460536828752</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>1.97113281819507</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2610,62 +2739,62 @@
       <c r="F29">
         <v>72.060540000000003</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>103.789682883013</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>82.4999984218192</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>70.285832046162497</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>4.9925043508698801</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>100.65187084216301</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>0.497157019973757</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>103.08980527194301</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>82.156888834445795</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>70.207639022121597</v>
       </c>
-      <c r="P29">
+      <c r="T29">
         <v>4.9763675124638702</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>120.271728370216</v>
       </c>
-      <c r="R29">
+      <c r="V29">
         <v>0.83831462312290395</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>98.352172212391594</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>79.834300858380104</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>69.678332397844301</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>4.8671335294078197</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>253.08307163703901</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>3.1476891675171301</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2684,62 +2813,62 @@
       <c r="F30">
         <v>65.312870000000004</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>44.260058227860398</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>174.455315459361</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>17.965599014016899</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>7.0268928597684202</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>96.459283502699094</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>0.54158577665917196</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>43.911536178623003</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>174.28445521949499</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>17.926660787470102</v>
       </c>
-      <c r="P30">
+      <c r="T30">
         <v>7.0188571062302101</v>
       </c>
-      <c r="Q30">
+      <c r="U30">
         <v>106.22949595594</v>
       </c>
-      <c r="R30">
+      <c r="V30">
         <v>0.71147397579822103</v>
       </c>
-      <c r="S30">
+      <c r="W30">
         <v>43.382141575377702</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>174.02492360853299</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>17.8675147821058</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
         <v>7.0066510361538699</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <v>121.070157419468</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>0.96952908587257602</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2758,62 +2887,62 @@
       <c r="F31">
         <v>65.175539999999998</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>39.146327440072803</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>329.147859634778</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>12.964421310962599</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>11.8538528588216</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>113.90304041042801</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>0.84729245478472404</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>39.011263339690899</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>329.08164550388102</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>12.949331429130099</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>11.850738732111701</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>117.689328705316</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>0.91312988697140096</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>38.653296248468799</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>328.906154905211</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
         <v>12.9093379660917</v>
       </c>
-      <c r="V31">
+      <c r="Z31">
         <v>11.842485207474899</v>
       </c>
-      <c r="W31">
+      <c r="AA31">
         <v>127.72431656379401</v>
       </c>
-      <c r="X31">
+      <c r="AB31">
         <v>1.0876221023472801</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2832,62 +2961,62 @@
       <c r="F32">
         <v>63.40157</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>39.0356171003803</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>179.66182946201801</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>4.0635625615502802</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>5.2125054507658302</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>82.739000429133895</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>0.33624665249652702</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>38.838687974998201</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>179.565286480955</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>4.0415608806966503</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>5.2079649233600902</v>
       </c>
-      <c r="Q32">
+      <c r="U32">
         <v>88.259567628322998</v>
       </c>
-      <c r="R32">
+      <c r="V32">
         <v>0.432240391034445</v>
       </c>
-      <c r="S32">
+      <c r="W32">
         <v>38.496777455150202</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>179.397667492252</v>
       </c>
-      <c r="U32">
+      <c r="Y32">
         <v>4.0033613196941902</v>
       </c>
-      <c r="V32">
+      <c r="Z32">
         <v>5.2000816095908897</v>
       </c>
-      <c r="W32">
+      <c r="AA32">
         <v>97.844437297898295</v>
       </c>
-      <c r="X32">
+      <c r="AB32">
         <v>0.59890577880771301</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2906,62 +3035,62 @@
       <c r="F33">
         <v>61.48516</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>54.600867139117703</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>271.921666607205</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>19.9265030083391</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>8.1933347406551604</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>123.14693895625</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>1.0721986479539001</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
         <v>54.233455005910898</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>271.74154564973099</v>
       </c>
-      <c r="O33">
+      <c r="S33">
         <v>19.8854543088088</v>
       </c>
-      <c r="P33">
+      <c r="T33">
         <v>8.1848634449197597</v>
       </c>
-      <c r="Q33">
+      <c r="U33">
         <v>133.446702219965</v>
       </c>
-      <c r="R33">
+      <c r="V33">
         <v>1.2512948795666099</v>
       </c>
-      <c r="S33">
+      <c r="W33">
         <v>53.725783999230501</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>271.49266386401803</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>19.828735347375599</v>
       </c>
-      <c r="V33">
+      <c r="Z33">
         <v>8.1731582483701892</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <v>147.678380251448</v>
       </c>
-      <c r="X33">
+      <c r="AB33">
         <v>1.4987607522962501</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2980,62 +3109,62 @@
       <c r="F34">
         <v>58.733089999999997</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>65.338220655527707</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>407.37204301717497</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>25.902806436764699</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>8.9441253112517494</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>151.82370955786899</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>1.6186953752656901</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
         <v>65.018978236443004</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>407.21553688960103</v>
       </c>
-      <c r="O34">
+      <c r="S34">
         <v>25.867139443342602</v>
       </c>
-      <c r="P34">
+      <c r="T34">
         <v>8.9367646481191905</v>
       </c>
-      <c r="Q34">
+      <c r="U34">
         <v>160.77311825487499</v>
       </c>
-      <c r="R34">
+      <c r="V34">
         <v>1.77431112407056</v>
       </c>
-      <c r="S34">
+      <c r="W34">
         <v>64.462665263541197</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>406.94280875604801</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
         <v>25.804986013976698</v>
       </c>
-      <c r="V34">
+      <c r="Z34">
         <v>8.9239379304118494</v>
       </c>
-      <c r="W34">
+      <c r="AA34">
         <v>176.368389623328</v>
       </c>
-      <c r="X34">
+      <c r="AB34">
         <v>2.0454876804198898</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3054,62 +3183,62 @@
       <c r="F35">
         <v>56.053069999999998</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>45.488918701522699</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>276.01126405006102</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>18.8216518344551</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>8.6360686114130107</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>112.591444864916</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>0.98311093377122605</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
         <v>45.301434618125299</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>275.91935142780301</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>18.800705390093199</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>8.6317458551058692</v>
       </c>
-      <c r="Q35">
+      <c r="U35">
         <v>117.84723665886899</v>
       </c>
-      <c r="R35">
+      <c r="V35">
         <v>1.07450065607231</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>44.931188972323099</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>275.73784136268802</v>
       </c>
-      <c r="U35">
+      <c r="Y35">
         <v>18.759340119615398</v>
       </c>
-      <c r="V35">
+      <c r="Z35">
         <v>8.6232092280408796</v>
       </c>
-      <c r="W35">
+      <c r="AA35">
         <v>128.22643254415499</v>
       </c>
-      <c r="X35">
+      <c r="AB35">
         <v>1.2549780925560701</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3128,62 +3257,62 @@
       <c r="F36">
         <v>55.245080000000002</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>35.8891067824405</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>211.461334925806</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>10.0460108214562</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>5.7547459621966004</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>86.047285475891101</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>0.53560055555129205</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
         <v>35.742708631676898</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>211.38956436434501</v>
       </c>
-      <c r="O36">
+      <c r="S36">
         <v>10.0296546558336</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>5.7513705101683499</v>
       </c>
-      <c r="Q36">
+      <c r="U36">
         <v>90.151304257062904</v>
       </c>
-      <c r="R36">
+      <c r="V36">
         <v>0.606962807222166</v>
       </c>
-      <c r="S36">
+      <c r="W36">
         <v>35.464552145225902</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>211.25320029756799</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
         <v>9.9985779411506304</v>
       </c>
-      <c r="V36">
+      <c r="Z36">
         <v>5.7449571513146802</v>
       </c>
-      <c r="W36">
+      <c r="AA36">
         <v>97.948939941289197</v>
       </c>
-      <c r="X36">
+      <c r="AB36">
         <v>0.74255108539682702</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3202,62 +3331,62 @@
       <c r="F37">
         <v>54.911090000000002</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>67.195977906106094</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>52.8058336208207</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>5.1652104164446602</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>3.8989581319321802</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>66.014005326266698</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>0.19306174753109601</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
         <v>66.911209890265795</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>52.666228302881301</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>5.1333950362174701</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>3.8923923333095001</v>
       </c>
-      <c r="Q37">
+      <c r="U37">
         <v>73.996983794158893</v>
       </c>
-      <c r="R37">
+      <c r="V37">
         <v>0.33187283707153797</v>
       </c>
-      <c r="S37">
+      <c r="W37">
         <v>64.059751715069197</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>51.268322979966101</v>
       </c>
-      <c r="U37">
+      <c r="Y37">
         <v>4.8148191393488604</v>
       </c>
-      <c r="V37">
+      <c r="Z37">
         <v>3.82664723864319</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>153.93267863517499</v>
       </c>
-      <c r="X37">
+      <c r="AB37">
         <v>1.7218253389706999</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3276,62 +3405,62 @@
       <c r="F38">
         <v>52.773000000000003</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>47.585990816791202</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>133.35483667331499</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>19.948970382145198</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>6.3546572269288797</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>89.665039796339499</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>0.64149292899839605</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
         <v>47.002759474232803</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>133.06891201717099</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>19.8838095287778</v>
       </c>
-      <c r="P38">
+      <c r="T38">
         <v>6.3412098615905403</v>
       </c>
-      <c r="Q38">
+      <c r="U38">
         <v>106.014921069717</v>
       </c>
-      <c r="R38">
+      <c r="V38">
         <v>0.925790931622685</v>
       </c>
-      <c r="S38">
+      <c r="W38">
         <v>46.222126754193098</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>132.68621286202301</v>
       </c>
-      <c r="U38">
+      <c r="Y38">
         <v>19.796594232732101</v>
       </c>
-      <c r="V38">
+      <c r="Z38">
         <v>6.3232110802915296</v>
       </c>
-      <c r="W38">
+      <c r="AA38">
         <v>127.898608312546</v>
       </c>
-      <c r="X38">
+      <c r="AB38">
         <v>1.30631287359673</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3350,62 +3479,62 @@
       <c r="F39">
         <v>52.231670000000001</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>37.720219458201797</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>343.956857334115</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>20.4161228056767</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>10.5425298010045</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>111.88115587644999</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>1.0372081245539899</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
         <v>37.588461122514502</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>343.89226382880003</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>20.401402256616301</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>10.5394918941791</v>
       </c>
-      <c r="Q39">
+      <c r="U39">
         <v>115.574772779504</v>
       </c>
-      <c r="R39">
+      <c r="V39">
         <v>1.1014341510577701</v>
       </c>
-      <c r="S39">
+      <c r="W39">
         <v>37.275830232819203</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>343.73899895238901</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
         <v>20.366473928738401</v>
       </c>
-      <c r="V39">
+      <c r="Z39">
         <v>10.532283670815501</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>124.338838692845</v>
       </c>
-      <c r="X39">
+      <c r="AB39">
         <v>1.2538270884968701</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3424,62 +3553,62 @@
       <c r="F40">
         <v>46.878</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>34.567903136829003</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>239.25227422580701</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>10.841106893852301</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>7.2067235970949604</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>89.634815022336497</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>0.743471888644194</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
         <v>34.451256868317301</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>239.195089294578</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>10.828074723178799</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>7.2040341240272898</v>
       </c>
-      <c r="Q40">
+      <c r="U40">
         <v>92.904791277012094</v>
       </c>
-      <c r="R40">
+      <c r="V40">
         <v>0.80033148916905195</v>
       </c>
-      <c r="S40">
+      <c r="W40">
         <v>34.193879474232801</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>239.06891201717099</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
         <v>10.799319528777801</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>7.1980998615905403</v>
       </c>
-      <c r="W40">
+      <c r="AA40">
         <v>100.11992106971699</v>
       </c>
-      <c r="X40">
+      <c r="AB40">
         <v>0.925790931622685</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3498,62 +3627,62 @@
       <c r="F41">
         <v>42.861989999999999</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>51.281377152287803</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>169.44698081351399</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>23.685329588331701</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>1.53958087179095</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>74.484999232125503</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>0.54987300588546695</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
         <v>50.546080633774899</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>169.08650738062599</v>
       </c>
-      <c r="O41">
+      <c r="S41">
         <v>23.603179427446499</v>
       </c>
-      <c r="P41">
+      <c r="T41">
         <v>1.5226273917652</v>
       </c>
-      <c r="Q41">
+      <c r="U41">
         <v>95.097764529817098</v>
       </c>
-      <c r="R41">
+      <c r="V41">
         <v>0.90829566992272903</v>
       </c>
-      <c r="S41">
+      <c r="W41">
         <v>49.3347539992305</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>168.492663864018</v>
       </c>
-      <c r="U41">
+      <c r="Y41">
         <v>23.467845347375601</v>
       </c>
-      <c r="V41">
+      <c r="Z41">
         <v>1.4946982483701901</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
         <v>129.05521025144799</v>
       </c>
-      <c r="X41">
+      <c r="AB41">
         <v>1.4987607522962501</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3572,62 +3701,62 @@
       <c r="F42">
         <v>42.340600000000002</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>34.081713034921201</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>149.406465173979</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>8.6795362690285707</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>5.1788353746782301</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>76.280394027948205</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>0.59015814795773502</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
         <v>33.883839405340701</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>149.309459157036</v>
       </c>
-      <c r="O42">
+      <c r="S42">
         <v>8.6574290645257594</v>
       </c>
-      <c r="P42">
+      <c r="T42">
         <v>5.1742730701626298</v>
       </c>
-      <c r="Q42">
+      <c r="U42">
         <v>81.827438767660993</v>
       </c>
-      <c r="R42">
+      <c r="V42">
         <v>0.68661228811933595</v>
       </c>
-      <c r="S42">
+      <c r="W42">
         <v>33.554679692172101</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>149.148091152718</v>
       </c>
-      <c r="U42">
+      <c r="Y42">
         <v>8.6206540727872003</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>5.1666837473765401</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
         <v>91.054861640166493</v>
       </c>
-      <c r="X42">
+      <c r="AB42">
         <v>0.84706225397288204</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3646,62 +3775,62 @@
       <c r="F43">
         <v>37.630429999999997</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>52.133182630151097</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>85.609969443413206</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>6.00953391284233</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>2.2937764144615498</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>59.9333449677871</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>0.38781163434902999</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
         <v>51.801189404387003</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>85.447212331453997</v>
       </c>
-      <c r="O43">
+      <c r="S43">
         <v>5.97244235015624</v>
       </c>
-      <c r="P43">
+      <c r="T43">
         <v>2.2861217603458801</v>
       </c>
-      <c r="Q43">
+      <c r="U43">
         <v>69.240200461863594</v>
       </c>
-      <c r="R43">
+      <c r="V43">
         <v>0.54964280507362595</v>
       </c>
-      <c r="S43">
+      <c r="W43">
         <v>49.988685847513203</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>84.558646476974303</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>5.76994246738351</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>2.2443314865251902</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
         <v>120.050600726822</v>
       </c>
-      <c r="X43">
+      <c r="AB43">
         <v>1.4331535209214199</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3720,62 +3849,62 @@
       <c r="F44">
         <v>37.443269999999998</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>16.271083232061301</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>58.062355498560002</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>6.4697805180893102</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>1.85443265079443</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>33.877627876143201</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>-6.20007519893193E-2</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
         <v>16.1407416526717</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>57.998456547065302</v>
       </c>
-      <c r="O44">
+      <c r="S44">
         <v>6.4552182545027401</v>
       </c>
-      <c r="P44">
+      <c r="T44">
         <v>1.8514274096337999</v>
       </c>
-      <c r="Q44">
+      <c r="U44">
         <v>37.531528468412297</v>
       </c>
-      <c r="R44">
+      <c r="V44">
         <v>1.53467207894294E-3</v>
       </c>
-      <c r="S44">
+      <c r="W44">
         <v>15.8866700232819</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>57.8738998952389</v>
       </c>
-      <c r="U44">
+      <c r="Y44">
         <v>6.4268323928738402</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>1.8455693670815501</v>
       </c>
-      <c r="W44">
+      <c r="AA44">
         <v>44.653986869284502</v>
       </c>
-      <c r="X44">
+      <c r="AB44">
         <v>0.125382708849686</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3794,62 +3923,62 @@
       <c r="F45">
         <v>36.991599999999998</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>23.3731247633579</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>92.790090400887195</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>1.4715126123726101</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>3.6719677101969599</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>48.9947517040722</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>0.20871540273632</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
         <v>23.246088948663001</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>92.727812074973997</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>1.4573196815581499</v>
       </c>
-      <c r="P45">
+      <c r="T45">
         <v>3.6690386889208302</v>
       </c>
-      <c r="Q45">
+      <c r="U45">
         <v>52.555980904508303</v>
       </c>
-      <c r="R45">
+      <c r="V45">
         <v>0.27063942112169098</v>
       </c>
-      <c r="S45">
+      <c r="W45">
         <v>22.996739840265601</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>92.605570602549406</v>
       </c>
-      <c r="U45">
+      <c r="Y45">
         <v>1.42946143817514</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>3.6632895319178802</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
         <v>59.546051602762098</v>
       </c>
-      <c r="X45">
+      <c r="AB45">
         <v>0.39218544977401898</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3868,62 +3997,62 @@
       <c r="F46">
         <v>36.411650000000002</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>24.529295739883601</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>171.53935647165301</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>11.534671556342699</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>4.4470854052079503</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>62.7523898976496</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>0.45802288196069701</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
         <v>24.411704967173399</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>171.481708504544</v>
       </c>
-      <c r="O46">
+      <c r="S46">
         <v>11.52153386202</v>
       </c>
-      <c r="P46">
+      <c r="T46">
         <v>4.4443741550304203</v>
       </c>
-      <c r="Q46">
+      <c r="U46">
         <v>66.048843692848806</v>
       </c>
-      <c r="R46">
+      <c r="V46">
         <v>0.51534288410923701</v>
       </c>
-      <c r="S46">
+      <c r="W46">
         <v>24.161883606676799</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>171.35923551417901</v>
       </c>
-      <c r="U46">
+      <c r="Y46">
         <v>11.493622856812401</v>
       </c>
-      <c r="V46">
+      <c r="Z46">
         <v>4.4386141094725398</v>
       </c>
-      <c r="W46">
+      <c r="AA46">
         <v>73.052153161364501</v>
       </c>
-      <c r="X46">
+      <c r="AB46">
         <v>0.637119113573407</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3942,62 +4071,62 @@
       <c r="F47">
         <v>31.452809999999999</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>18.523667653243901</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>63.915804642414699</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>0.85006228312445298</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>2.50718019552385</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>36.267309451890704</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>8.3716361906369094E-2</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
         <v>18.404660124236099</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>63.857462121484801</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>0.83676630332801605</v>
       </c>
-      <c r="P47">
+      <c r="T47">
         <v>2.50443627968153</v>
       </c>
-      <c r="Q47">
+      <c r="U47">
         <v>39.603479557875502</v>
       </c>
-      <c r="R47">
+      <c r="V47">
         <v>0.14172696649043501</v>
       </c>
-      <c r="S47">
+      <c r="W47">
         <v>18.174673351907298</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>63.744712884608397</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
         <v>0.81107129475315398</v>
       </c>
-      <c r="V47">
+      <c r="Z47">
         <v>2.4991335534307102</v>
       </c>
-      <c r="W47">
+      <c r="AA47">
         <v>46.050760675393597</v>
       </c>
-      <c r="X47">
+      <c r="AB47">
         <v>0.25383476185726001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4016,62 +4145,62 @@
       <c r="F48">
         <v>31.419969999999999</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>23.601712681104999</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>139.532873969327</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>8.0573942252541801</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>4.2740105256699099</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>58.131395464981203</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>0.46446850469225898</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
         <v>23.486955420990199</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>139.47661510985901</v>
       </c>
-      <c r="O48">
+      <c r="S48">
         <v>8.0445731018790507</v>
       </c>
-      <c r="P48">
+      <c r="T48">
         <v>4.27136460682196</v>
       </c>
-      <c r="Q48">
+      <c r="U48">
         <v>61.3484166386094</v>
       </c>
-      <c r="R48">
+      <c r="V48">
         <v>0.52040730196975105</v>
       </c>
-      <c r="S48">
+      <c r="W48">
         <v>23.247523606676801</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>139.35923551417901</v>
       </c>
-      <c r="U48">
+      <c r="Y48">
         <v>8.0178228568123995</v>
       </c>
-      <c r="V48">
+      <c r="Z48">
         <v>4.2658441094725399</v>
       </c>
-      <c r="W48">
+      <c r="AA48">
         <v>68.060473161364499</v>
       </c>
-      <c r="X48">
+      <c r="AB48">
         <v>0.637119113573407</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4090,62 +4219,62 @@
       <c r="F49">
         <v>29.776669999999999</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>18.485901334731999</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>85.797962010853894</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>5.1393665144086302</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>2.7087479210645702</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>41.329703515169399</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>0.200888575133708</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
         <v>18.370671822517998</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>85.741471633445599</v>
       </c>
-      <c r="O49">
+      <c r="S49">
         <v>5.1264926292089097</v>
       </c>
-      <c r="P49">
+      <c r="T49">
         <v>2.7060911136616901</v>
       </c>
-      <c r="Q49">
+      <c r="U49">
         <v>44.559963459059503</v>
       </c>
-      <c r="R49">
+      <c r="V49">
         <v>0.25705757322304101</v>
       </c>
-      <c r="S49">
+      <c r="W49">
         <v>18.144463066983199</v>
       </c>
-      <c r="T49">
+      <c r="X49">
         <v>85.630574540090805</v>
       </c>
-      <c r="U49">
+      <c r="Y49">
         <v>5.1012197152307603</v>
       </c>
-      <c r="V49">
+      <c r="Z49">
         <v>2.7008754958502998</v>
       </c>
-      <c r="W49">
+      <c r="AA49">
         <v>50.901334414482903</v>
       </c>
-      <c r="X49">
+      <c r="AB49">
         <v>0.36732376209513401</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4164,62 +4293,62 @@
       <c r="F50">
         <v>29.137869999999999</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>10.446010579006501</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>207.71461555238301</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <v>2.3755322575565798</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>5.8044680412898302</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>45.456860809433401</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>0.28376086739665901</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
         <v>10.2953621593497</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>207.64076132945999</v>
       </c>
-      <c r="O50">
+      <c r="S50">
         <v>2.35870123551268</v>
       </c>
-      <c r="P50">
+      <c r="T50">
         <v>5.8009945922672204</v>
       </c>
-      <c r="Q50">
+      <c r="U50">
         <v>49.680028522961699</v>
       </c>
-      <c r="R50">
+      <c r="V50">
         <v>0.35719492637410699</v>
       </c>
-      <c r="S50">
+      <c r="W50">
         <v>9.9992600931277007</v>
       </c>
-      <c r="T50">
+      <c r="X50">
         <v>207.495599580955</v>
       </c>
-      <c r="U50">
+      <c r="Y50">
         <v>2.3256195714953498</v>
       </c>
-      <c r="V50">
+      <c r="Z50">
         <v>5.7941674683262097</v>
       </c>
-      <c r="W50">
+      <c r="AA50">
         <v>57.980737477138099</v>
       </c>
-      <c r="X50">
+      <c r="AB50">
         <v>0.50153083539874599</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4238,62 +4367,62 @@
       <c r="F51">
         <v>28.44257</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>30.405513100952501</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>76.579177557366904</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>21.892756590171999</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>2.3551682366558802</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>52.506241412612297</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>0.41842834232395298</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
         <v>30.091465454959501</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>76.425218127135196</v>
       </c>
-      <c r="O51">
+      <c r="S51">
         <v>21.857669976820301</v>
       </c>
-      <c r="P51">
+      <c r="T51">
         <v>2.34792734762754</v>
       </c>
-      <c r="Q51">
+      <c r="U51">
         <v>61.310023636738798</v>
       </c>
-      <c r="R51">
+      <c r="V51">
         <v>0.57151188219857096</v>
       </c>
-      <c r="S51">
+      <c r="W51">
         <v>29.445424583202399</v>
       </c>
-      <c r="T51">
+      <c r="X51">
         <v>76.108501584944406</v>
       </c>
-      <c r="U51">
+      <c r="Y51">
         <v>21.785491800782498</v>
       </c>
-      <c r="V51">
+      <c r="Z51">
         <v>2.3330318044835399</v>
       </c>
-      <c r="W51">
+      <c r="AA51">
         <v>79.420661354941899</v>
       </c>
-      <c r="X51">
+      <c r="AB51">
         <v>0.88642659279778402</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4312,62 +4441,62 @@
       <c r="F52">
         <v>26.661090000000002</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>23.661963050952199</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>87.518519857035002</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>6.0641129921296599</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>4.5002054352642604</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>54.193319221215603</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>0.47874095502643399</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
         <v>23.523120933776401</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>87.450453582616802</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>6.0486010157004904</v>
       </c>
-      <c r="P52">
+      <c r="T52">
         <v>4.4970042001148904</v>
       </c>
-      <c r="Q52">
+      <c r="U52">
         <v>58.085517678197803</v>
       </c>
-      <c r="R52">
+      <c r="V52">
         <v>0.546419993707844</v>
       </c>
-      <c r="S52">
+      <c r="W52">
         <v>23.263382279195699</v>
       </c>
-      <c r="T52">
+      <c r="X52">
         <v>87.323118715507903</v>
       </c>
-      <c r="U52">
+      <c r="Y52">
         <v>6.01958201217652</v>
       </c>
-      <c r="V52">
+      <c r="Z52">
         <v>4.4910154949034897</v>
       </c>
-      <c r="W52">
+      <c r="AA52">
         <v>65.366841322212196</v>
       </c>
-      <c r="X52">
+      <c r="AB52">
         <v>0.67303044022068503</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4386,62 +4515,62 @@
       <c r="F53">
         <v>24.706</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>46.420244954003302</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>155.95639429823399</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>44.314167282027498</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>5.5039180238946397</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>84.381963416973605</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>1.0376685261776699</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
         <v>46.084473711445398</v>
       </c>
-      <c r="N53">
+      <c r="R53">
         <v>155.79178504275399</v>
       </c>
-      <c r="O53">
+      <c r="S53">
         <v>44.276653624744696</v>
       </c>
-      <c r="P53">
+      <c r="T53">
         <v>5.4961762613395297</v>
       </c>
-      <c r="Q53">
+      <c r="U53">
         <v>93.794729073144893</v>
       </c>
-      <c r="R53">
+      <c r="V53">
         <v>1.201341303397</v>
       </c>
-      <c r="S53">
+      <c r="W53">
         <v>45.4025416801463</v>
       </c>
-      <c r="T53">
+      <c r="X53">
         <v>155.457473137108</v>
       </c>
-      <c r="U53">
+      <c r="Y53">
         <v>44.200465550038103</v>
       </c>
-      <c r="V53">
+      <c r="Z53">
         <v>5.48045318802086</v>
       </c>
-      <c r="W53">
+      <c r="AA53">
         <v>112.911513331248</v>
       </c>
-      <c r="X53">
+      <c r="AB53">
         <v>1.53375127569617</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4460,62 +4589,62 @@
       <c r="F54">
         <v>23.335540000000002</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>11.509943905724599</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>85.860934890587799</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>4.9046677306968496</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>2.9251796080054802</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>31.287628003947798</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>0.138273954312812</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
         <v>11.419743754770201</v>
       </c>
-      <c r="N54">
+      <c r="R54">
         <v>85.816714964010004</v>
       </c>
-      <c r="O54">
+      <c r="S54">
         <v>4.8945902222003399</v>
       </c>
-      <c r="P54">
+      <c r="T54">
         <v>2.9230998940138799</v>
       </c>
-      <c r="Q54">
+      <c r="U54">
         <v>33.816233123960103</v>
       </c>
-      <c r="R54">
+      <c r="V54">
         <v>0.182242309374544</v>
       </c>
-      <c r="S54">
+      <c r="W54">
         <v>11.228953906678299</v>
       </c>
-      <c r="T54">
+      <c r="X54">
         <v>85.723181716170004</v>
       </c>
-      <c r="U54">
+      <c r="Y54">
         <v>4.8732744450663699</v>
       </c>
-      <c r="V54">
+      <c r="Z54">
         <v>2.9187009178222301</v>
       </c>
-      <c r="W54">
+      <c r="AA54">
         <v>39.164696309745203</v>
       </c>
-      <c r="X54">
+      <c r="AB54">
         <v>0.27524343735852203</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4534,62 +4663,62 @@
       <c r="F55">
         <v>22.24624</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>13.073381771564099</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>79.818567107531507</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>7.5178823167970599</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>2.3532770024533201</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>32.6210229618653</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>0.180400702879812</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
         <v>12.970903066029599</v>
       </c>
-      <c r="N55">
+      <c r="R55">
         <v>79.768327714508601</v>
       </c>
-      <c r="O55">
+      <c r="S55">
         <v>7.5064330008612297</v>
       </c>
-      <c r="P55">
+      <c r="T55">
         <v>2.3509141860335498</v>
       </c>
-      <c r="Q55">
+      <c r="U55">
         <v>35.4938361086855</v>
       </c>
-      <c r="R55">
+      <c r="V55">
         <v>0.23035427904942399</v>
       </c>
-      <c r="S55">
+      <c r="W55">
         <v>12.7616953860673</v>
       </c>
-      <c r="T55">
+      <c r="X55">
         <v>79.665765267000907</v>
       </c>
-      <c r="U55">
+      <c r="Y55">
         <v>7.4830595125682899</v>
       </c>
-      <c r="V55">
+      <c r="Z55">
         <v>2.3460905561996399</v>
       </c>
-      <c r="W55">
+      <c r="AA55">
         <v>41.3586113346826</v>
       </c>
-      <c r="X55">
+      <c r="AB55">
         <v>0.33233323869522102</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4608,62 +4737,62 @@
       <c r="F56">
         <v>21.01859</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>14.607954276525501</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>91.708827603877694</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>5.1770332119418496</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>3.3103358274165799</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>37.668550065979503</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>0.28951588769269698</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
         <v>14.513503856678</v>
       </c>
-      <c r="N56">
+      <c r="R56">
         <v>91.662524015838102</v>
       </c>
-      <c r="O56">
+      <c r="S56">
         <v>5.16648084702405</v>
       </c>
-      <c r="P56">
+      <c r="T56">
         <v>3.30815811643062</v>
       </c>
-      <c r="Q56">
+      <c r="U56">
         <v>40.316304118348398</v>
       </c>
-      <c r="R56">
+      <c r="V56">
         <v>0.33555605006100298</v>
       </c>
-      <c r="S56">
+      <c r="W56">
         <v>14.3142134707997</v>
       </c>
-      <c r="T56">
+      <c r="X56">
         <v>91.564823445074595</v>
       </c>
-      <c r="U56">
+      <c r="Y56">
         <v>5.1442153570474698</v>
       </c>
-      <c r="V56">
+      <c r="Z56">
         <v>3.3035631462502302</v>
       </c>
-      <c r="W56">
+      <c r="AA56">
         <v>45.903065168846702</v>
       </c>
-      <c r="X56">
+      <c r="AB56">
         <v>0.432700792658128</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4682,62 +4811,62 @@
       <c r="F57">
         <v>19.96846</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>4.0744544925575097</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>100.063513088261</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>0.42968432721226002</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>2.5944570935690798</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>16.336624024833998</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>-6.3151756048526894E-2</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
         <v>3.9686700223282898</v>
       </c>
-      <c r="N57">
+      <c r="R57">
         <v>100.011653069657</v>
       </c>
-      <c r="O57">
+      <c r="S57">
         <v>0.417865678504315</v>
       </c>
-      <c r="P57">
+      <c r="T57">
         <v>2.5920180572647999</v>
       </c>
-      <c r="Q57">
+      <c r="U57">
         <v>19.302108563487099</v>
       </c>
-      <c r="R57">
+      <c r="V57">
         <v>-1.15867741960243E-2</v>
       </c>
-      <c r="S57">
+      <c r="W57">
         <v>3.75473982137366</v>
       </c>
-      <c r="T57">
+      <c r="X57">
         <v>99.906775442747005</v>
       </c>
-      <c r="U57">
+      <c r="Y57">
         <v>0.39396457196548101</v>
       </c>
-      <c r="V57">
+      <c r="Z57">
         <v>2.5870855418815899</v>
       </c>
-      <c r="W57">
+      <c r="AA57">
         <v>25.299271492102601</v>
       </c>
-      <c r="X57">
+      <c r="AB57">
         <v>9.2694193568188796E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4756,62 +4885,62 @@
       <c r="F58">
         <v>19.863409999999998</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>24.796973422706799</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>198.22865939590699</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>5.47454518774419</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>4.6186529644921199</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>63.970579589044704</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>0.76695237145202999</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
         <v>24.693077960874501</v>
       </c>
-      <c r="N58">
+      <c r="R58">
         <v>198.17772544906401</v>
       </c>
-      <c r="O58">
+      <c r="S58">
         <v>5.4629375863345997</v>
       </c>
-      <c r="P58">
+      <c r="T58">
         <v>4.6162574824075602</v>
       </c>
-      <c r="Q58">
+      <c r="U58">
         <v>66.883109046650404</v>
       </c>
-      <c r="R58">
+      <c r="V58">
         <v>0.81759655005716603</v>
       </c>
-      <c r="S58">
+      <c r="W58">
         <v>24.453173894461798</v>
       </c>
-      <c r="T58">
+      <c r="X58">
         <v>198.06011433544299</v>
       </c>
-      <c r="U58">
+      <c r="Y58">
         <v>5.4361345794433698</v>
       </c>
-      <c r="V58">
+      <c r="Z58">
         <v>4.6107260965031998</v>
       </c>
-      <c r="W58">
+      <c r="AA58">
         <v>73.608404339667302</v>
       </c>
-      <c r="X58">
+      <c r="AB58">
         <v>0.93453856247266298</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4830,62 +4959,62 @@
       <c r="F59">
         <v>19.832000000000001</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>43.0087549511424</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>84.369653821487702</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>2.3072871389189098</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>2.5729540944443801</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>55.876758499581499</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>0.62676007704053804</v>
       </c>
-      <c r="M59">
+      <c r="Q59">
         <v>42.7093471202258</v>
       </c>
-      <c r="N59">
+      <c r="R59">
         <v>84.222871447402198</v>
       </c>
-      <c r="O59">
+      <c r="S59">
         <v>2.2738361421294599</v>
       </c>
-      <c r="P59">
+      <c r="T59">
         <v>2.5660507506188699</v>
       </c>
-      <c r="Q59">
+      <c r="U59">
         <v>64.270138845590793</v>
       </c>
-      <c r="R59">
+      <c r="V59">
         <v>0.77270739174806802</v>
       </c>
-      <c r="S59">
+      <c r="W59">
         <v>41.614666754193102</v>
       </c>
-      <c r="T59">
+      <c r="X59">
         <v>83.686212862023396</v>
       </c>
-      <c r="U59">
+      <c r="Y59">
         <v>2.1515342327320699</v>
       </c>
-      <c r="V59">
+      <c r="Z59">
         <v>2.54081108029153</v>
       </c>
-      <c r="W59">
+      <c r="AA59">
         <v>94.957608312545901</v>
       </c>
-      <c r="X59">
+      <c r="AB59">
         <v>1.30631287359673</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4904,62 +5033,62 @@
       <c r="F60">
         <v>18.517510000000001</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>13.1710479730909</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>56.840792829790601</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>2.8037874519576098</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>1.82037230372659</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>27.621371016728201</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>0.15830142494302499</v>
       </c>
-      <c r="M60">
+      <c r="Q60">
         <v>13.0704582759533</v>
       </c>
-      <c r="N60">
+      <c r="R60">
         <v>56.791479508528397</v>
       </c>
-      <c r="O60">
+      <c r="S60">
         <v>2.7925491833201401</v>
       </c>
-      <c r="P60">
+      <c r="T60">
         <v>1.8180530415265299</v>
       </c>
-      <c r="Q60">
+      <c r="U60">
         <v>30.441229082501099</v>
       </c>
-      <c r="R60">
+      <c r="V60">
         <v>0.20733419786527099</v>
       </c>
-      <c r="S60">
+      <c r="W60">
         <v>12.8706956379758</v>
       </c>
-      <c r="T60">
+      <c r="X60">
         <v>56.693547419824696</v>
       </c>
-      <c r="U60">
+      <c r="Y60">
         <v>2.7702309315189799</v>
       </c>
-      <c r="V60">
+      <c r="Z60">
         <v>1.81344718279122</v>
       </c>
-      <c r="W60">
+      <c r="AA60">
         <v>36.041228903261199</v>
       </c>
-      <c r="X60">
+      <c r="AB60">
         <v>0.30470914127423798</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4978,62 +5107,62 @@
       <c r="F61">
         <v>17.547599999999999</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>15.161654865265699</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>97.635899452715407</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>7.7572832371963099</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>2.7957659326136901</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>38.367772698460499</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>0.36202914342277898</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
         <v>15.0591761597311</v>
       </c>
-      <c r="N61">
+      <c r="R61">
         <v>97.585660059692401</v>
       </c>
-      <c r="O61">
+      <c r="S61">
         <v>7.7458339212604796</v>
       </c>
-      <c r="P61">
+      <c r="T61">
         <v>2.7934031161939199</v>
       </c>
-      <c r="Q61">
+      <c r="U61">
         <v>41.240585845280698</v>
       </c>
-      <c r="R61">
+      <c r="V61">
         <v>0.41198271959239102</v>
       </c>
-      <c r="S61">
+      <c r="W61">
         <v>14.845718210875701</v>
       </c>
-      <c r="T61">
+      <c r="X61">
         <v>97.481013950722897</v>
       </c>
-      <c r="U61">
+      <c r="Y61">
         <v>7.7219855765462402</v>
       </c>
-      <c r="V61">
+      <c r="Z61">
         <v>2.7884814893656298</v>
       </c>
-      <c r="W61">
+      <c r="AA61">
         <v>47.2245100036343</v>
       </c>
-      <c r="X61">
+      <c r="AB61">
         <v>0.516033486544762</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5052,62 +5181,62 @@
       <c r="F62">
         <v>17.390029999999999</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>10.3896191666023</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>94.806991210521602</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <v>4.4004742255676099</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>2.3901525747068302</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>28.426751474957499</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>0.191910743471888</v>
       </c>
-      <c r="M62">
+      <c r="Q62">
         <v>10.301308024044801</v>
       </c>
-      <c r="N62">
+      <c r="R62">
         <v>94.763697355704593</v>
       </c>
-      <c r="O62">
+      <c r="S62">
         <v>4.3906077643694603</v>
       </c>
-      <c r="P62">
+      <c r="T62">
         <v>2.3881164149349501</v>
       </c>
-      <c r="Q62">
+      <c r="U62">
         <v>30.902401513922399</v>
       </c>
-      <c r="R62">
+      <c r="V62">
         <v>0.234958295286254</v>
       </c>
-      <c r="S62">
+      <c r="W62">
         <v>10.113351688548301</v>
       </c>
-      <c r="T62">
+      <c r="X62">
         <v>94.671553215505895</v>
       </c>
-      <c r="U62">
+      <c r="Y62">
         <v>4.3696085581830202</v>
       </c>
-      <c r="V62">
+      <c r="Z62">
         <v>2.3837827700728802</v>
       </c>
-      <c r="W62">
+      <c r="AA62">
         <v>36.171432078136498</v>
       </c>
-      <c r="X62">
+      <c r="AB62">
         <v>0.326578218399183</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5126,62 +5255,62 @@
       <c r="F63">
         <v>17.275739999999999</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>7.1330646104962696</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>50.021376823144898</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>0.72433167513705499</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>1.67791537657185</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>16.0533602124897</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>-2.1255208293368501E-2</v>
       </c>
-      <c r="M63">
+      <c r="Q63">
         <v>7.0475869805342697</v>
       </c>
-      <c r="N63">
+      <c r="R63">
         <v>49.979472075969099</v>
       </c>
-      <c r="O63">
+      <c r="S63">
         <v>0.71478178488643895</v>
       </c>
-      <c r="P63">
+      <c r="T63">
         <v>1.6759445481295601</v>
       </c>
-      <c r="Q63">
+      <c r="U63">
         <v>18.4495776298835</v>
       </c>
-      <c r="R63">
+      <c r="V63">
         <v>2.0411138649948399E-2</v>
       </c>
-      <c r="S63">
+      <c r="W63">
         <v>6.8771039727094996</v>
       </c>
-      <c r="T63">
+      <c r="X63">
         <v>49.895894099557701</v>
       </c>
-      <c r="U63">
+      <c r="Y63">
         <v>0.69573476620979602</v>
       </c>
-      <c r="V63">
+      <c r="Z63">
         <v>1.67201377979989</v>
       </c>
-      <c r="W63">
+      <c r="AA63">
         <v>23.228773694409298</v>
       </c>
-      <c r="X63">
+      <c r="AB63">
         <v>0.103513631724741</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5200,62 +5329,62 @@
       <c r="F64">
         <v>16.836760000000002</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>17.487922042364499</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>99.545144420157797</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <v>8.8107006019574001</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>3.0371576190812002</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>42.846530641103499</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>0.45226786166465799</v>
       </c>
-      <c r="M64">
+      <c r="Q64">
         <v>17.374581538547499</v>
       </c>
-      <c r="N64">
+      <c r="R64">
         <v>99.489580114510304</v>
       </c>
-      <c r="O64">
+      <c r="S64">
         <v>8.7980377640560299</v>
       </c>
-      <c r="P64">
+      <c r="T64">
         <v>3.0345443658980402</v>
       </c>
-      <c r="Q64">
+      <c r="U64">
         <v>46.023835503946103</v>
       </c>
-      <c r="R64">
+      <c r="V64">
         <v>0.50751605650662601</v>
       </c>
-      <c r="S64">
+      <c r="W64">
         <v>17.1412890015242</v>
       </c>
-      <c r="T64">
+      <c r="X64">
         <v>99.375210252052497</v>
       </c>
-      <c r="U64">
+      <c r="Y64">
         <v>8.7719734227090491</v>
       </c>
-      <c r="V64">
+      <c r="Z64">
         <v>3.0291654197627</v>
       </c>
-      <c r="W64">
+      <c r="AA64">
         <v>52.563788013297199</v>
       </c>
-      <c r="X64">
+      <c r="AB64">
         <v>0.62123525755634101</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5274,62 +5403,62 @@
       <c r="F65">
         <v>16.447790000000001</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>11.050826847518101</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>95.771800483611599</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>0.94899442823007096</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>3.0748575143574999</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>29.496804554757901</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>0.22690126687180101</v>
       </c>
-      <c r="M65">
+      <c r="Q65">
         <v>10.961098948663</v>
       </c>
-      <c r="N65">
+      <c r="R65">
         <v>95.727812074973997</v>
       </c>
-      <c r="O65">
+      <c r="S65">
         <v>0.93896968155815397</v>
       </c>
-      <c r="P65">
+      <c r="T65">
         <v>3.0727886889208298</v>
       </c>
-      <c r="Q65">
+      <c r="U65">
         <v>32.012170904508302</v>
       </c>
-      <c r="R65">
+      <c r="V65">
         <v>0.27063942112169098</v>
       </c>
-      <c r="S65">
+      <c r="W65">
         <v>10.772198108968</v>
       </c>
-      <c r="T65">
+      <c r="X65">
         <v>95.635204898894798</v>
       </c>
-      <c r="U65">
+      <c r="Y65">
         <v>0.91786495172253901</v>
       </c>
-      <c r="V65">
+      <c r="Z65">
         <v>3.0684332669489001</v>
       </c>
-      <c r="W65">
+      <c r="AA65">
         <v>37.307679009246002</v>
       </c>
-      <c r="X65">
+      <c r="AB65">
         <v>0.36271974585830302</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5348,62 +5477,62 @@
       <c r="F66">
         <v>15.55111</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>14.511479453433701</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>78.645623206203695</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>5.7967592338290501</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>2.9355432519207398</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>35.815254347462997</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>0.35236070932543401</v>
       </c>
-      <c r="M66">
+      <c r="Q66">
         <v>14.4118342604945</v>
       </c>
-      <c r="N66">
+      <c r="R66">
         <v>78.596772920821905</v>
       </c>
-      <c r="O66">
+      <c r="S66">
         <v>5.7856264888407596</v>
       </c>
-      <c r="P66">
+      <c r="T66">
         <v>2.93324576683055</v>
       </c>
-      <c r="Q66">
+      <c r="U66">
         <v>38.608634872712202</v>
       </c>
-      <c r="R66">
+      <c r="V66">
         <v>0.40093308062399702</v>
       </c>
-      <c r="S66">
+      <c r="W66">
         <v>14.2054600931277</v>
       </c>
-      <c r="T66">
+      <c r="X66">
         <v>78.4955995809554</v>
       </c>
-      <c r="U66">
+      <c r="Y66">
         <v>5.7625695714953498</v>
       </c>
-      <c r="V66">
+      <c r="Z66">
         <v>2.9284874683262099</v>
       </c>
-      <c r="W66">
+      <c r="AA66">
         <v>44.393977477138201</v>
       </c>
-      <c r="X66">
+      <c r="AB66">
         <v>0.50153083539874599</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5422,62 +5551,62 @@
       <c r="F67">
         <v>15.494440000000001</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>11.4016683599228</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>59.800740226136298</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>4.1146896563036996</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>2.1780985837237301</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>26.888608272027302</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>0.19812616539160899</v>
       </c>
-      <c r="M67">
+      <c r="Q67">
         <v>11.308162444273799</v>
       </c>
-      <c r="N67">
+      <c r="R67">
         <v>59.7548996739771</v>
       </c>
-      <c r="O67">
+      <c r="S67">
         <v>4.1042428150350698</v>
       </c>
-      <c r="P67">
+      <c r="T67">
         <v>2.1759426498476202</v>
       </c>
-      <c r="Q67">
+      <c r="U67">
         <v>29.509884783872501</v>
       </c>
-      <c r="R67">
+      <c r="V67">
         <v>0.24370592613623199</v>
       </c>
-      <c r="S67">
+      <c r="W67">
         <v>11.118317100380301</v>
       </c>
-      <c r="T67">
+      <c r="X67">
         <v>59.661829462017501</v>
       </c>
-      <c r="U67">
+      <c r="Y67">
         <v>4.0830325615502803</v>
       </c>
-      <c r="V67">
+      <c r="Z67">
         <v>2.1715654507658302</v>
       </c>
-      <c r="W67">
+      <c r="AA67">
         <v>34.8318704291339</v>
       </c>
-      <c r="X67">
+      <c r="AB67">
         <v>0.33624665249652702</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5496,62 +5625,62 @@
       <c r="F68">
         <v>14.96477</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>5.5440523763352898</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>119.85769363942499</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>2.0703790651526002</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>3.2557171682364601</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>23.102200787613601</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>0.14149676567859301</v>
       </c>
-      <c r="M68">
+      <c r="Q68">
         <v>5.4326008809152198</v>
       </c>
-      <c r="N68">
+      <c r="R68">
         <v>119.803055405538</v>
       </c>
-      <c r="O68">
+      <c r="S68">
         <v>2.05792727454959</v>
       </c>
-      <c r="P68">
+      <c r="T68">
         <v>3.25314746927303</v>
       </c>
-      <c r="Q68">
+      <c r="U68">
         <v>26.2265505694089</v>
       </c>
-      <c r="R68">
+      <c r="V68">
         <v>0.19582415727319399</v>
       </c>
-      <c r="S68">
+      <c r="W68">
         <v>5.2002528480903303</v>
       </c>
-      <c r="T68">
+      <c r="X68">
         <v>119.689148578961</v>
       </c>
-      <c r="U68">
+      <c r="Y68">
         <v>2.03196845685178</v>
       </c>
-      <c r="V68">
+      <c r="Z68">
         <v>3.2477903002475501</v>
       </c>
-      <c r="W68">
+      <c r="AA68">
         <v>32.740025538236303</v>
       </c>
-      <c r="X68">
+      <c r="AB68">
         <v>0.30908295669922697</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5570,62 +5699,62 @@
       <c r="F69">
         <v>14.765169999999999</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>8.8936583599228491</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>89.800740226136298</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <v>3.7247496563036999</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>2.69346858372373</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>26.159338272027298</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>0.19812616539160899</v>
       </c>
-      <c r="M69">
+      <c r="Q69">
         <v>8.8053472173654193</v>
       </c>
-      <c r="N69">
+      <c r="R69">
         <v>89.757446371319304</v>
       </c>
-      <c r="O69">
+      <c r="S69">
         <v>3.7148831951055499</v>
       </c>
-      <c r="P69">
+      <c r="T69">
         <v>2.6914324239518499</v>
       </c>
-      <c r="Q69">
+      <c r="U69">
         <v>28.634988310992199</v>
       </c>
-      <c r="R69">
+      <c r="V69">
         <v>0.241173717205975</v>
       </c>
-      <c r="S69">
+      <c r="W69">
         <v>8.6169186297696196</v>
       </c>
-      <c r="T69">
+      <c r="X69">
         <v>89.665070713180299</v>
       </c>
-      <c r="U69">
+      <c r="Y69">
         <v>3.6938312270945199</v>
       </c>
-      <c r="V69">
+      <c r="Z69">
         <v>2.6870878905348499</v>
       </c>
-      <c r="W69">
+      <c r="AA69">
         <v>33.917257645468098</v>
       </c>
-      <c r="X69">
+      <c r="AB69">
         <v>0.33302384113074601</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5644,62 +5773,62 @@
       <c r="F70">
         <v>14.4321</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>5.6022690986637498</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>85.909785175969503</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <v>3.7939204756851401</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>2.3706070930956802</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>19.590807478698601</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>8.9701583014248895E-2</v>
       </c>
-      <c r="M70">
+      <c r="Q70">
         <v>5.5106521914116602</v>
       </c>
-      <c r="N70">
+      <c r="R70">
         <v>85.864870695571099</v>
       </c>
-      <c r="O70">
+      <c r="S70">
         <v>3.7836846817148699</v>
       </c>
-      <c r="P70">
+      <c r="T70">
         <v>2.36849471343929</v>
       </c>
-      <c r="Q70">
+      <c r="U70">
         <v>22.159128909496399</v>
       </c>
-      <c r="R70">
+      <c r="V70">
         <v>0.134360540511506</v>
       </c>
-      <c r="S70">
+      <c r="W70">
         <v>5.3198623433196701</v>
       </c>
-      <c r="T70">
+      <c r="X70">
         <v>85.771337447731199</v>
       </c>
-      <c r="U70">
+      <c r="Y70">
         <v>3.7623689045808901</v>
       </c>
-      <c r="V70">
+      <c r="Z70">
         <v>2.3640957372476401</v>
       </c>
-      <c r="W70">
+      <c r="AA70">
         <v>27.507592095281499</v>
       </c>
-      <c r="X70">
+      <c r="AB70">
         <v>0.227361668495484</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5718,62 +5847,62 @@
       <c r="F71">
         <v>13.24024</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>10.487621418701501</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>63.807222728461802</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>1.35185698739219</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>2.2062334632617602</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>24.263722704695699</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>0.191680542660047</v>
       </c>
-      <c r="M71">
+      <c r="Q71">
         <v>10.399310276144099</v>
       </c>
-      <c r="N71">
+      <c r="R71">
         <v>63.763928873644801</v>
       </c>
-      <c r="O71">
+      <c r="S71">
         <v>1.3419905261940399</v>
       </c>
-      <c r="P71">
+      <c r="T71">
         <v>2.2041973034898801</v>
       </c>
-      <c r="Q71">
+      <c r="U71">
         <v>26.739372743660599</v>
       </c>
-      <c r="R71">
+      <c r="V71">
         <v>0.23472809447441301</v>
       </c>
-      <c r="S71">
+      <c r="W71">
         <v>10.219854478433801</v>
       </c>
-      <c r="T71">
+      <c r="X71">
         <v>63.675952056369603</v>
       </c>
-      <c r="U71">
+      <c r="Y71">
         <v>1.3219410328502099</v>
       </c>
-      <c r="V71">
+      <c r="Z71">
         <v>2.2000596526165501</v>
       </c>
-      <c r="W71">
+      <c r="AA71">
         <v>31.770105443161398</v>
       </c>
-      <c r="X71">
+      <c r="AB71">
         <v>0.322204402974194</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5792,62 +5921,62 @@
       <c r="F72">
         <v>13.09797</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>7.97296407366363</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>79.879456325803602</v>
       </c>
-      <c r="I72">
+      <c r="L72">
         <v>2.43879867666397</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>1.48253069239987</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>19.990956383000199</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>0.119857889365489</v>
       </c>
-      <c r="M72">
+      <c r="Q72">
         <v>7.8870141916023897</v>
       </c>
-      <c r="N72">
+      <c r="R72">
         <v>79.837320060687603</v>
       </c>
-      <c r="O72">
+      <c r="S72">
         <v>2.4291960245887698</v>
       </c>
-      <c r="P72">
+      <c r="T72">
         <v>1.48054897540264</v>
       </c>
-      <c r="Q72">
+      <c r="U72">
         <v>22.400412570655899</v>
       </c>
-      <c r="R72">
+      <c r="V72">
         <v>0.16175443712064799</v>
       </c>
-      <c r="S72">
+      <c r="W72">
         <v>7.7103919064875299</v>
       </c>
-      <c r="T72">
+      <c r="X72">
         <v>79.7507323510535</v>
       </c>
-      <c r="U72">
+      <c r="Y72">
         <v>2.4094631021924702</v>
       </c>
-      <c r="V72">
+      <c r="Z72">
         <v>1.47647665585888</v>
       </c>
-      <c r="W72">
+      <c r="AA72">
         <v>27.3517126485857</v>
       </c>
-      <c r="X72">
+      <c r="AB72">
         <v>0.24784954074938001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5866,62 +5995,62 @@
       <c r="F73">
         <v>13.08466</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>6.4993887627857401</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>66.872742305537898</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>5.1278485837508896</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>2.3069049243069002</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>20.361570720593701</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>0.12653371290889401</v>
       </c>
-      <c r="M73">
+      <c r="Q73">
         <v>6.4115498723275497</v>
       </c>
-      <c r="N73">
+      <c r="R73">
         <v>66.829679968661097</v>
       </c>
-      <c r="O73">
+      <c r="S73">
         <v>5.1180348843773302</v>
       </c>
-      <c r="P73">
+      <c r="T73">
         <v>2.30487965308996</v>
       </c>
-      <c r="Q73">
+      <c r="U73">
         <v>22.823981989296801</v>
       </c>
-      <c r="R73">
+      <c r="V73">
         <v>0.16935106391141799</v>
       </c>
-      <c r="S73">
+      <c r="W73">
         <v>6.2287883099226002</v>
       </c>
-      <c r="T73">
+      <c r="X73">
         <v>66.740082525804397</v>
       </c>
-      <c r="U73">
+      <c r="Y73">
         <v>5.0976160582613703</v>
       </c>
-      <c r="V73">
+      <c r="Z73">
         <v>2.3006657823321102</v>
       </c>
-      <c r="W73">
+      <c r="AA73">
         <v>27.947386080630501</v>
       </c>
-      <c r="X73">
+      <c r="AB73">
         <v>0.25843877809408999</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5940,62 +6069,62 @@
       <c r="F74">
         <v>12.99436</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>6.4999970145035197</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>69.928075093245198</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <v>3.49965865982767</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>1.3434872889351299</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>17.107204628012902</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>7.1515718878768106E-2</v>
       </c>
-      <c r="M74">
+      <c r="Q74">
         <v>6.4145193845415198</v>
       </c>
-      <c r="N74">
+      <c r="R74">
         <v>69.886170346069306</v>
       </c>
-      <c r="O74">
+      <c r="S74">
         <v>3.4901087695770601</v>
       </c>
-      <c r="P74">
+      <c r="T74">
         <v>1.34151646049283</v>
       </c>
-      <c r="Q74">
+      <c r="U74">
         <v>19.503422045406801</v>
       </c>
-      <c r="R74">
+      <c r="V74">
         <v>0.113182065822085</v>
       </c>
-      <c r="S74">
+      <c r="W74">
         <v>6.2369525952281801</v>
       </c>
-      <c r="T74">
+      <c r="X74">
         <v>69.799119600554903</v>
       </c>
-      <c r="U74">
+      <c r="Y74">
         <v>3.4702703235315799</v>
       </c>
-      <c r="V74">
+      <c r="Z74">
         <v>1.33742236383922</v>
       </c>
-      <c r="W74">
+      <c r="AA74">
         <v>24.481199663860199</v>
       </c>
-      <c r="X74">
+      <c r="AB74">
         <v>0.19973757107449999</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6014,62 +6143,62 @@
       <c r="F75">
         <v>12.773260000000001</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>15.182805235112999</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>78.621545340423097</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>11.9032320040718</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>1.8099208422080399</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>34.414236454694802</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>0.37630159375695299</v>
       </c>
-      <c r="M75">
+      <c r="Q75">
         <v>15.0515191515249</v>
       </c>
-      <c r="N75">
+      <c r="R75">
         <v>78.557183353048103</v>
       </c>
-      <c r="O75">
+      <c r="S75">
         <v>11.888564216836</v>
       </c>
-      <c r="P75">
+      <c r="T75">
         <v>1.80689382393755</v>
       </c>
-      <c r="Q75">
+      <c r="U75">
         <v>38.094614587487598</v>
       </c>
-      <c r="R75">
+      <c r="V75">
         <v>0.440297419448899</v>
       </c>
-      <c r="S75">
+      <c r="W75">
         <v>14.770529152478501</v>
       </c>
-      <c r="T75">
+      <c r="X75">
         <v>78.419430178630293</v>
       </c>
-      <c r="U75">
+      <c r="Y75">
         <v>11.8571709312056</v>
       </c>
-      <c r="V75">
+      <c r="Z75">
         <v>1.8004151337543</v>
       </c>
-      <c r="W75">
+      <c r="AA75">
         <v>45.9716828932849</v>
       </c>
-      <c r="X75">
+      <c r="AB75">
         <v>0.57726690249460899</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6088,62 +6217,62 @@
       <c r="F76">
         <v>11.94014</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>7.4668579221370699</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>51.917888303876502</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>1.0661871395457501</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>1.5600381925182201</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>16.635490519534098</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>8.1644554599795402E-2</v>
       </c>
-      <c r="M76">
+      <c r="Q76">
         <v>7.3818525442742997</v>
       </c>
-      <c r="N76">
+      <c r="R76">
         <v>51.876215074640797</v>
       </c>
-      <c r="O76">
+      <c r="S76">
         <v>1.0566900111197299</v>
       </c>
-      <c r="P76">
+      <c r="T76">
         <v>1.5580782526308501</v>
       </c>
-      <c r="Q76">
+      <c r="U76">
         <v>19.018469166666101</v>
       </c>
-      <c r="R76">
+      <c r="V76">
         <v>0.123080700731271</v>
       </c>
-      <c r="S76">
+      <c r="W76">
         <v>7.21184178854877</v>
       </c>
-      <c r="T76">
+      <c r="X76">
         <v>51.792868616169599</v>
       </c>
-      <c r="U76">
+      <c r="Y76">
         <v>1.0376957542676699</v>
       </c>
-      <c r="V76">
+      <c r="Z76">
         <v>1.5541583728561099</v>
       </c>
-      <c r="W76">
+      <c r="AA76">
         <v>23.78442646093</v>
       </c>
-      <c r="X76">
+      <c r="AB76">
         <v>0.20595299299422101</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6162,62 +6291,62 @@
       <c r="F77">
         <v>11.81171</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>9.0842762257623697</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>76.758372443080106</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <v>2.3227942424039099</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>2.9865759781715702</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>25.628573229944799</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>0.24025291395860901</v>
       </c>
-      <c r="M77">
+      <c r="Q77">
         <v>8.99690958740341</v>
       </c>
-      <c r="N77">
+      <c r="R77">
         <v>76.715541624143498</v>
       </c>
-      <c r="O77">
+      <c r="S77">
         <v>2.3130333048549399</v>
       </c>
-      <c r="P77">
+      <c r="T77">
         <v>2.9845615955095499</v>
       </c>
-      <c r="Q77">
+      <c r="U77">
         <v>28.077745728385999</v>
       </c>
-      <c r="R77">
+      <c r="V77">
         <v>0.28284006414929203</v>
       </c>
-      <c r="S77">
+      <c r="W77">
         <v>8.8132035207999895</v>
       </c>
-      <c r="T77">
+      <c r="X77">
         <v>76.625481145406496</v>
       </c>
-      <c r="U77">
+      <c r="Y77">
         <v>2.2925089550897999</v>
       </c>
-      <c r="V77">
+      <c r="Z77">
         <v>2.98032594764185</v>
       </c>
-      <c r="W77">
+      <c r="AA77">
         <v>33.227627360243503</v>
       </c>
-      <c r="X77">
+      <c r="AB77">
         <v>0.37238817995564699</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6236,62 +6365,62 @@
       <c r="F78">
         <v>10.51726</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>8.5641927801518207</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>64.791942544408798</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>4.7209047069693204</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>1.9476448186363899</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>22.414501541977401</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <v>0.206873796241588</v>
       </c>
-      <c r="M78">
+      <c r="Q78">
         <v>8.4758816375943908</v>
       </c>
-      <c r="N78">
+      <c r="R78">
         <v>64.748648689591803</v>
       </c>
-      <c r="O78">
+      <c r="S78">
         <v>4.7110382457711699</v>
       </c>
-      <c r="P78">
+      <c r="T78">
         <v>1.9456086588645201</v>
       </c>
-      <c r="Q78">
+      <c r="U78">
         <v>24.890151580942302</v>
       </c>
-      <c r="R78">
+      <c r="V78">
         <v>0.24992134805595401</v>
       </c>
-      <c r="S78">
+      <c r="W78">
         <v>8.2917033188917308</v>
       </c>
-      <c r="T78">
+      <c r="X78">
         <v>64.658356692914595</v>
       </c>
-      <c r="U78">
+      <c r="Y78">
         <v>4.6904611341814402</v>
       </c>
-      <c r="V78">
+      <c r="Z78">
         <v>1.94136212244188</v>
       </c>
-      <c r="W78">
+      <c r="AA78">
         <v>30.053271983061599</v>
       </c>
-      <c r="X78">
+      <c r="AB78">
         <v>0.33969966467415003</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6310,62 +6439,62 @@
       <c r="F79">
         <v>10.26188</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>6.5225469814879</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>52.841718901551303</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>3.9214884992559602</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>2.4678458579463101</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>19.3127859356809</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>0.157380621695659</v>
       </c>
-      <c r="M79">
+      <c r="Q79">
         <v>6.4356525952281798</v>
       </c>
-      <c r="N79">
+      <c r="R79">
         <v>52.799119600554903</v>
       </c>
-      <c r="O79">
+      <c r="S79">
         <v>3.91178032353158</v>
       </c>
-      <c r="P79">
+      <c r="T79">
         <v>2.46584236383922</v>
       </c>
-      <c r="Q79">
+      <c r="U79">
         <v>21.7487196638602</v>
       </c>
-      <c r="R79">
+      <c r="V79">
         <v>0.19973757107449999</v>
       </c>
-      <c r="S79">
+      <c r="W79">
         <v>6.2561967975178998</v>
       </c>
-      <c r="T79">
+      <c r="X79">
         <v>52.711142783279698</v>
       </c>
-      <c r="U79">
+      <c r="Y79">
         <v>3.8917308301877398</v>
       </c>
-      <c r="V79">
+      <c r="Z79">
         <v>2.4617047129658798</v>
       </c>
-      <c r="W79">
+      <c r="AA79">
         <v>26.779452363361099</v>
       </c>
-      <c r="X79">
+      <c r="AB79">
         <v>0.28721387957428102</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6384,62 +6513,62 @@
       <c r="F80">
         <v>10.177619999999999</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>16.8802324461811</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>116.479393325142</v>
       </c>
-      <c r="I80">
+      <c r="L80">
         <v>8.5798962437741206</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>1.87641526948112</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>39.947201395467197</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>0.51764489222765298</v>
       </c>
-      <c r="M80">
+      <c r="Q80">
         <v>16.769725454959499</v>
       </c>
-      <c r="N80">
+      <c r="R80">
         <v>116.425218127135</v>
       </c>
-      <c r="O80">
+      <c r="S80">
         <v>8.5675499768202794</v>
       </c>
-      <c r="P80">
+      <c r="T80">
         <v>1.87386734762754</v>
       </c>
-      <c r="Q80">
+      <c r="U80">
         <v>43.045073636738799</v>
       </c>
-      <c r="R80">
+      <c r="V80">
         <v>0.57151188219857096</v>
       </c>
-      <c r="S80">
+      <c r="W80">
         <v>16.545405707821601</v>
       </c>
-      <c r="T80">
+      <c r="X80">
         <v>116.315247105541</v>
       </c>
-      <c r="U80">
+      <c r="Y80">
         <v>8.5424881101404893</v>
       </c>
-      <c r="V80">
+      <c r="Z80">
         <v>1.8686952840358699</v>
       </c>
-      <c r="W80">
+      <c r="AA80">
         <v>49.333489511114898</v>
       </c>
-      <c r="X80">
+      <c r="AB80">
         <v>0.68085726782329703</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6458,62 +6587,62 @@
       <c r="F81">
         <v>9.5953800000000005</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>8.8025691496176393</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>49.832689701883602</v>
       </c>
-      <c r="I81">
+      <c r="L81">
         <v>3.0526107880969899</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>1.3148512043040399</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>19.162597975892801</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <v>0.16635845335747801</v>
       </c>
-      <c r="M81">
+      <c r="Q81">
         <v>8.7133135028617303</v>
       </c>
-      <c r="N81">
+      <c r="R81">
         <v>49.7889328111862</v>
       </c>
-      <c r="O81">
+      <c r="S81">
         <v>3.0426388032496599</v>
       </c>
-      <c r="P81">
+      <c r="T81">
         <v>1.31279326742231</v>
       </c>
-      <c r="Q81">
+      <c r="U81">
         <v>21.664725555381398</v>
       </c>
-      <c r="R81">
+      <c r="V81">
         <v>0.20986640679552701</v>
       </c>
-      <c r="S81">
+      <c r="W81">
         <v>8.5348022093499196</v>
       </c>
-      <c r="T81">
+      <c r="X81">
         <v>49.701419029791403</v>
       </c>
-      <c r="U81">
+      <c r="Y81">
         <v>3.0226948335550001</v>
       </c>
-      <c r="V81">
+      <c r="Z81">
         <v>1.3086773936588301</v>
       </c>
-      <c r="W81">
+      <c r="AA81">
         <v>26.668980714358501</v>
       </c>
-      <c r="X81">
+      <c r="AB81">
         <v>0.29688231367162599</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6532,62 +6661,62 @@
       <c r="F82">
         <v>9.3238299999999992</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>3.0797319414104098</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>239.56158219391199</v>
       </c>
-      <c r="I82">
+      <c r="L82">
         <v>0.173556691503225</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>5.8462407064812103</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>34.393647952512502</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>0.43592360402391001</v>
       </c>
-      <c r="M82">
+      <c r="Q82">
         <v>2.8351053540053401</v>
       </c>
-      <c r="N82">
+      <c r="R82">
         <v>239.441655900889</v>
       </c>
-      <c r="O82">
+      <c r="S82">
         <v>0.146226066366103</v>
       </c>
-      <c r="P82">
+      <c r="T82">
         <v>5.84060043502756</v>
       </c>
-      <c r="Q82">
+      <c r="U82">
         <v>41.251330948147903</v>
       </c>
-      <c r="R82">
+      <c r="V82">
         <v>0.55516762455782198</v>
       </c>
-      <c r="S82">
+      <c r="W82">
         <v>2.4776105148824801</v>
       </c>
-      <c r="T82">
+      <c r="X82">
         <v>239.266396820159</v>
       </c>
-      <c r="U82">
+      <c r="Y82">
         <v>0.10628536515220099</v>
       </c>
-      <c r="V82">
+      <c r="Z82">
         <v>5.8323577989456803</v>
       </c>
-      <c r="W82">
+      <c r="AA82">
         <v>51.273080036364</v>
       </c>
-      <c r="X82">
+      <c r="AB82">
         <v>0.72942963912185999</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6606,62 +6735,62 @@
       <c r="F83">
         <v>9.2422900000000006</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>6.8484205780528304</v>
       </c>
-      <c r="H83">
+      <c r="K83">
         <v>49.8523687268004</v>
       </c>
-      <c r="I83">
+      <c r="L83">
         <v>2.1535855431870599</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>2.11336673147308</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>17.684212503636001</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>0.14679138435094799</v>
       </c>
-      <c r="M83">
+      <c r="Q83">
         <v>6.7638874522892998</v>
       </c>
-      <c r="N83">
+      <c r="R83">
         <v>49.810927015505001</v>
       </c>
-      <c r="O83">
+      <c r="S83">
         <v>2.1441411765856202</v>
       </c>
-      <c r="P83">
+      <c r="T83">
         <v>2.1114176801406401</v>
       </c>
-      <c r="Q83">
+      <c r="U83">
         <v>20.0539523805062</v>
       </c>
-      <c r="R83">
+      <c r="V83">
         <v>0.187997329670582</v>
       </c>
-      <c r="S83">
+      <c r="W83">
         <v>6.5915154360675796</v>
       </c>
-      <c r="T83">
+      <c r="X83">
         <v>49.726422967332802</v>
       </c>
-      <c r="U83">
+      <c r="Y83">
         <v>2.1248831106106199</v>
       </c>
-      <c r="V83">
+      <c r="Z83">
         <v>2.1074433575912499</v>
       </c>
-      <c r="W83">
+      <c r="AA83">
         <v>24.886103526079399</v>
       </c>
-      <c r="X83">
+      <c r="AB83">
         <v>0.27202062599274102</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6680,62 +6809,62 @@
       <c r="F84">
         <v>8.8881700000000006</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>6.9594319225185197</v>
       </c>
-      <c r="H84">
+      <c r="K84">
         <v>50.862787034109402</v>
       </c>
-      <c r="I84">
+      <c r="L84">
         <v>0.62801982529356304</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>2.0300467164449199</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>16.734347841853001</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>0.136432347818079</v>
       </c>
-      <c r="M84">
+      <c r="Q84">
         <v>6.8744265446557504</v>
       </c>
-      <c r="N84">
+      <c r="R84">
         <v>50.821113804873697</v>
       </c>
-      <c r="O84">
+      <c r="S84">
         <v>0.61852269686753703</v>
       </c>
-      <c r="P84">
+      <c r="T84">
         <v>2.0280867765575499</v>
       </c>
-      <c r="Q84">
+      <c r="U84">
         <v>19.117326488985</v>
       </c>
-      <c r="R84">
+      <c r="V84">
         <v>0.17786849394955501</v>
       </c>
-      <c r="S84">
+      <c r="W84">
         <v>6.7039435368309803</v>
       </c>
-      <c r="T84">
+      <c r="X84">
         <v>50.737535828462299</v>
       </c>
-      <c r="U84">
+      <c r="Y84">
         <v>0.59947567819089398</v>
       </c>
-      <c r="V84">
+      <c r="Z84">
         <v>2.0241560082278802</v>
       </c>
-      <c r="W84">
+      <c r="AA84">
         <v>23.896522553510799</v>
       </c>
-      <c r="X84">
+      <c r="AB84">
         <v>0.26097098702434701</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6754,62 +6883,62 @@
       <c r="F85">
         <v>8.6679399999999998</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>11.556323034921199</v>
       </c>
-      <c r="H85">
+      <c r="K85">
         <v>169.406465173979</v>
       </c>
-      <c r="I85">
+      <c r="L85">
         <v>8.6654362690285698</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>4.3441253746782298</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>42.607734027948197</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>0.59015814795773502</v>
       </c>
-      <c r="M85">
+      <c r="Q85">
         <v>11.445816043699599</v>
       </c>
-      <c r="N85">
+      <c r="R85">
         <v>169.35228997597301</v>
       </c>
-      <c r="O85">
+      <c r="S85">
         <v>8.6530900020747392</v>
       </c>
-      <c r="P85">
+      <c r="T85">
         <v>4.3415774528246498</v>
       </c>
-      <c r="Q85">
+      <c r="U85">
         <v>45.7056062692198</v>
       </c>
-      <c r="R85">
+      <c r="V85">
         <v>0.64402513792865301</v>
       </c>
-      <c r="S85">
+      <c r="W85">
         <v>11.199772699996799</v>
       </c>
-      <c r="T85">
+      <c r="X85">
         <v>169.23166912913001</v>
       </c>
-      <c r="U85">
+      <c r="Y85">
         <v>8.6256010914638495</v>
       </c>
-      <c r="V85">
+      <c r="Z85">
         <v>4.3359045157062104</v>
       </c>
-      <c r="W85">
+      <c r="AA85">
         <v>52.603005575640701</v>
       </c>
-      <c r="X85">
+      <c r="AB85">
         <v>0.76395976089809003</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6828,62 +6957,62 @@
       <c r="F86">
         <v>8.3144100000000005</v>
       </c>
-      <c r="G86">
+      <c r="J86">
         <v>4.3458641236638798</v>
       </c>
-      <c r="H86">
+      <c r="K86">
         <v>58.940114026135497</v>
       </c>
-      <c r="I86">
+      <c r="L86">
         <v>0.73432227470630196</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>1.58967349379148</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>11.738838574397001</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>5.9545276663008503E-2</v>
       </c>
-      <c r="M86">
+      <c r="Q86">
         <v>4.2599142416026403</v>
       </c>
-      <c r="N86">
+      <c r="R86">
         <v>58.897977761019398</v>
       </c>
-      <c r="O86">
+      <c r="S86">
         <v>0.72471962263109702</v>
       </c>
-      <c r="P86">
+      <c r="T86">
         <v>1.58769177679426</v>
       </c>
-      <c r="Q86">
+      <c r="U86">
         <v>14.1482947620527</v>
       </c>
-      <c r="R86">
+      <c r="V86">
         <v>0.101441824418167</v>
       </c>
-      <c r="S86">
+      <c r="W86">
         <v>4.0851809648847297</v>
       </c>
-      <c r="T86">
+      <c r="X86">
         <v>58.812316123146203</v>
       </c>
-      <c r="U86">
+      <c r="Y86">
         <v>0.70519774753315301</v>
       </c>
-      <c r="V86">
+      <c r="Z86">
         <v>1.5836630114702199</v>
       </c>
-      <c r="W86">
+      <c r="AA86">
         <v>19.0466397589351</v>
       </c>
-      <c r="X86">
+      <c r="AB86">
         <v>0.18661612479953299</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6902,62 +7031,62 @@
       <c r="F87">
         <v>8.2378599999999995</v>
       </c>
-      <c r="G87">
+      <c r="J87">
         <v>4.9022565446557502</v>
       </c>
-      <c r="H87">
+      <c r="K87">
         <v>99.821113804873704</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>2.7750326968675401</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>2.2905267765575501</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>18.467016488984999</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>0.17786849394955501</v>
       </c>
-      <c r="M87">
+      <c r="Q87">
         <v>4.8049726122128096</v>
       </c>
-      <c r="N87">
+      <c r="R87">
         <v>99.773421109192995</v>
       </c>
-      <c r="O87">
+      <c r="S87">
         <v>2.7641637610021901</v>
       </c>
-      <c r="P87">
+      <c r="T87">
         <v>2.2882837342420101</v>
       </c>
-      <c r="Q87">
+      <c r="U87">
         <v>21.1942031629249</v>
       </c>
-      <c r="R87">
+      <c r="V87">
         <v>0.22528986118891001</v>
       </c>
-      <c r="S87">
+      <c r="W87">
         <v>4.6023764616398797</v>
       </c>
-      <c r="T87">
+      <c r="X87">
         <v>99.674099912848007</v>
       </c>
-      <c r="U87">
+      <c r="Y87">
         <v>2.7415289382535</v>
       </c>
-      <c r="V87">
+      <c r="Z87">
         <v>2.2836125441771098</v>
       </c>
-      <c r="W87">
+      <c r="AA87">
         <v>26.873635605256201</v>
       </c>
-      <c r="X87">
+      <c r="AB87">
         <v>0.32404600946892598</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6976,62 +7105,62 @@
       <c r="F88">
         <v>7.96082</v>
       </c>
-      <c r="G88">
+      <c r="J88">
         <v>19.646775420990199</v>
       </c>
-      <c r="H88">
+      <c r="K88">
         <v>79.476615109859196</v>
       </c>
-      <c r="I88">
+      <c r="L88">
         <v>18.527583101878999</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>1.32722460682197</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>37.889266638609399</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>0.52040730196975105</v>
       </c>
-      <c r="M88">
+      <c r="Q88">
         <v>19.4772369173639</v>
       </c>
-      <c r="N88">
+      <c r="R88">
         <v>79.393500169328107</v>
       </c>
-      <c r="O88">
+      <c r="S88">
         <v>18.508641606851601</v>
       </c>
-      <c r="P88">
+      <c r="T88">
         <v>1.3233156156021599</v>
       </c>
-      <c r="Q88">
+      <c r="U88">
         <v>42.641985162611498</v>
       </c>
-      <c r="R88">
+      <c r="V88">
         <v>0.60304939342085995</v>
       </c>
-      <c r="S88">
+      <c r="W88">
         <v>19.039459221370699</v>
       </c>
-      <c r="T88">
+      <c r="X88">
         <v>79.178883038764596</v>
       </c>
-      <c r="U88">
+      <c r="Y88">
         <v>18.459731395457499</v>
       </c>
-      <c r="V88">
+      <c r="Z88">
         <v>1.3132219251821999</v>
       </c>
-      <c r="W88">
+      <c r="AA88">
         <v>54.914325195341199</v>
       </c>
-      <c r="X88">
+      <c r="AB88">
         <v>0.81644554599795904</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7050,62 +7179,62 @@
       <c r="F89">
         <v>7.9248799999999999</v>
       </c>
-      <c r="G89">
+      <c r="J89">
         <v>3.58290217442703</v>
       </c>
-      <c r="H89">
+      <c r="K89">
         <v>75.890569186933106</v>
       </c>
-      <c r="I89">
+      <c r="L89">
         <v>1.17810124424425</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>2.4715133430364999</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>14.1824054104317</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>0.108808250397096</v>
       </c>
-      <c r="M89">
+      <c r="Q89">
         <v>3.4870349982817999</v>
       </c>
-      <c r="N89">
+      <c r="R89">
         <v>75.843571045072906</v>
       </c>
-      <c r="O89">
+      <c r="S89">
         <v>1.1673905938526701</v>
       </c>
-      <c r="P89">
+      <c r="T89">
         <v>2.46930296638575</v>
       </c>
-      <c r="Q89">
+      <c r="U89">
         <v>16.869875773586099</v>
       </c>
-      <c r="R89">
+      <c r="V89">
         <v>0.155539015200926</v>
       </c>
-      <c r="S89">
+      <c r="W89">
         <v>3.28868911660201</v>
       </c>
-      <c r="T89">
+      <c r="X89">
         <v>75.7463335101898</v>
       </c>
-      <c r="U89">
+      <c r="Y89">
         <v>1.1452306275252799</v>
       </c>
-      <c r="V89">
+      <c r="Z89">
         <v>2.46472977331522</v>
       </c>
-      <c r="W89">
+      <c r="AA89">
         <v>22.430159283560702</v>
       </c>
-      <c r="X89">
+      <c r="AB89">
         <v>0.25222335617436897</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7124,62 +7253,62 @@
       <c r="F90">
         <v>6.6385500000000004</v>
       </c>
-      <c r="G90">
+      <c r="J90">
         <v>7.0841764437016197</v>
       </c>
-      <c r="H90">
+      <c r="K90">
         <v>55.837551578627803</v>
       </c>
-      <c r="I90">
+      <c r="L90">
         <v>2.3927887864133601</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>1.1293198639575699</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>15.9277538003941</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>0.161524236308806</v>
       </c>
-      <c r="M90">
+      <c r="Q90">
         <v>6.9986988137396198</v>
       </c>
-      <c r="N90">
+      <c r="R90">
         <v>55.795646831451897</v>
       </c>
-      <c r="O90">
+      <c r="S90">
         <v>2.38323889616274</v>
       </c>
-      <c r="P90">
+      <c r="T90">
         <v>1.12734903551527</v>
       </c>
-      <c r="Q90">
+      <c r="U90">
         <v>18.3239712177879</v>
       </c>
-      <c r="R90">
+      <c r="V90">
         <v>0.203190583252123</v>
       </c>
-      <c r="S90">
+      <c r="W90">
         <v>6.8263267975178996</v>
       </c>
-      <c r="T90">
+      <c r="X90">
         <v>55.711142783279698</v>
       </c>
-      <c r="U90">
+      <c r="Y90">
         <v>2.3639808301877401</v>
       </c>
-      <c r="V90">
+      <c r="Z90">
         <v>1.12337471296588</v>
       </c>
-      <c r="W90">
+      <c r="AA90">
         <v>23.156122363361099</v>
       </c>
-      <c r="X90">
+      <c r="AB90">
         <v>0.28721387957428102</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7198,62 +7327,62 @@
       <c r="F91">
         <v>6.1791299999999998</v>
       </c>
-      <c r="G91">
+      <c r="J91">
         <v>2.9023634019075999</v>
       </c>
-      <c r="H91">
+      <c r="K91">
         <v>117.80537058493999</v>
       </c>
-      <c r="I91">
+      <c r="L91">
         <v>2.6353748927954799</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>2.74974635482232</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>17.308522866790401</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>0.193522149154779</v>
       </c>
-      <c r="M91">
+      <c r="Q91">
         <v>2.7819391166020102</v>
       </c>
-      <c r="N91">
+      <c r="R91">
         <v>117.74633351019</v>
       </c>
-      <c r="O91">
+      <c r="S91">
         <v>2.62192062752528</v>
       </c>
-      <c r="P91">
+      <c r="T91">
         <v>2.7469697733152199</v>
       </c>
-      <c r="Q91">
+      <c r="U91">
         <v>20.684409283560701</v>
       </c>
-      <c r="R91">
+      <c r="V91">
         <v>0.25222335617436897</v>
       </c>
-      <c r="S91">
+      <c r="W91">
         <v>2.5448685627847398</v>
       </c>
-      <c r="T91">
+      <c r="X91">
         <v>117.63011150421001</v>
       </c>
-      <c r="U91">
+      <c r="Y91">
         <v>2.59543419158158</v>
       </c>
-      <c r="V91">
+      <c r="Z91">
         <v>2.7415037187404399</v>
       </c>
-      <c r="W91">
+      <c r="AA91">
         <v>27.330271955006602</v>
       </c>
-      <c r="X91">
+      <c r="AB91">
         <v>0.367784163718817</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7272,62 +7401,62 @@
       <c r="F92">
         <v>4.9192600000000004</v>
       </c>
-      <c r="G92">
+      <c r="J92">
         <v>3.0463177541980602</v>
       </c>
-      <c r="H92">
+      <c r="K92">
         <v>74.899366868660593</v>
       </c>
-      <c r="I92">
+      <c r="L92">
         <v>0.40291619357863201</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>1.75723710812383</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>10.6737121404816</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>0.10006061954711799</v>
       </c>
-      <c r="M92">
+      <c r="Q92">
         <v>2.9518673343505402</v>
       </c>
-      <c r="N92">
+      <c r="R92">
         <v>74.853063280621001</v>
       </c>
-      <c r="O92">
+      <c r="S92">
         <v>0.39236382866082398</v>
       </c>
-      <c r="P92">
+      <c r="T92">
         <v>1.7550593971378701</v>
       </c>
-      <c r="Q92">
+      <c r="U92">
         <v>13.321466192850499</v>
       </c>
-      <c r="R92">
+      <c r="V92">
         <v>0.146100781915424</v>
       </c>
-      <c r="S92">
+      <c r="W92">
         <v>2.7610774862585599</v>
       </c>
-      <c r="T92">
+      <c r="X92">
         <v>74.7595300327811</v>
       </c>
-      <c r="U92">
+      <c r="Y92">
         <v>0.371048051526852</v>
       </c>
-      <c r="V92">
+      <c r="Z92">
         <v>1.75066042094622</v>
       </c>
-      <c r="W92">
+      <c r="AA92">
         <v>18.669929378635601</v>
       </c>
-      <c r="X92">
+      <c r="AB92">
         <v>0.239101909899402</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7346,62 +7475,62 @@
       <c r="F93">
         <v>4.5670400000000004</v>
       </c>
-      <c r="G93">
+      <c r="J93">
         <v>5.4512705610682</v>
       </c>
-      <c r="H93">
+      <c r="K93">
         <v>49.8780672181624</v>
       </c>
-      <c r="I93">
+      <c r="L93">
         <v>0.16386210571644</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>1.18500536107029</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>11.539459004571301</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>0.121239094236538</v>
       </c>
-      <c r="M93">
+      <c r="Q93">
         <v>5.3672096874039097</v>
       </c>
-      <c r="N93">
+      <c r="R93">
         <v>49.836857024807202</v>
       </c>
-      <c r="O93">
+      <c r="S93">
         <v>0.154470500939591</v>
       </c>
-      <c r="P93">
+      <c r="T93">
         <v>1.1830671982927801</v>
       </c>
-      <c r="Q93">
+      <c r="U93">
         <v>13.895960111179599</v>
       </c>
-      <c r="R93">
+      <c r="V93">
         <v>0.16221483874433101</v>
       </c>
-      <c r="S93">
+      <c r="W93">
         <v>5.2000324442738002</v>
       </c>
-      <c r="T93">
+      <c r="X93">
         <v>49.7548996739771</v>
       </c>
-      <c r="U93">
+      <c r="Y93">
         <v>0.13579281503507201</v>
       </c>
-      <c r="V93">
+      <c r="Z93">
         <v>1.1792126498476201</v>
       </c>
-      <c r="W93">
+      <c r="AA93">
         <v>18.582484783872498</v>
       </c>
-      <c r="X93">
+      <c r="AB93">
         <v>0.24370592613623199</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7420,62 +7549,62 @@
       <c r="F94">
         <v>4.4674899999999997</v>
       </c>
-      <c r="G94">
+      <c r="J94">
         <v>1.4851996864502801</v>
       </c>
-      <c r="H94">
+      <c r="K94">
         <v>55.974610199224998</v>
       </c>
-      <c r="I94">
+      <c r="L94">
         <v>0.13631378657006901</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>1.50774588847603</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>5.9193418053822304</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>2.5245355698620499E-2</v>
       </c>
-      <c r="M94">
+      <c r="Q94">
         <v>1.3926382749997099</v>
       </c>
-      <c r="N94">
+      <c r="R94">
         <v>55.9292326829462</v>
       </c>
-      <c r="O94">
+      <c r="S94">
         <v>0.12597246895061701</v>
       </c>
-      <c r="P94">
+      <c r="T94">
         <v>1.5056117317097799</v>
       </c>
-      <c r="Q94">
+      <c r="U94">
         <v>8.5141407767037194</v>
       </c>
-      <c r="R94">
+      <c r="V94">
         <v>7.0364714819560401E-2</v>
       </c>
-      <c r="S94">
+      <c r="W94">
         <v>1.20798770419781</v>
       </c>
-      <c r="T94">
+      <c r="X94">
         <v>55.838709168328798</v>
       </c>
-      <c r="U94">
+      <c r="Y94">
         <v>0.105342595536304</v>
       </c>
-      <c r="V94">
+      <c r="Z94">
         <v>1.5013543067322199</v>
       </c>
-      <c r="W94">
+      <c r="AA94">
         <v>13.690499949084799</v>
       </c>
-      <c r="X94">
+      <c r="AB94">
         <v>0.16037323224959901</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7494,62 +7623,62 @@
       <c r="F95">
         <v>4.4001799999999998</v>
       </c>
-      <c r="G95">
+      <c r="J95">
         <v>3.7472740736636299</v>
       </c>
-      <c r="H95">
+      <c r="K95">
         <v>57.879456325803602</v>
       </c>
-      <c r="I95">
+      <c r="L95">
         <v>2.90910867666397</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>1.31912069239987</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>11.2931663830002</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>0.119857889365489</v>
       </c>
-      <c r="M95">
+      <c r="Q95">
         <v>3.6617964437016202</v>
       </c>
-      <c r="N95">
+      <c r="R95">
         <v>57.837551578627803</v>
       </c>
-      <c r="O95">
+      <c r="S95">
         <v>2.8995587864133601</v>
       </c>
-      <c r="P95">
+      <c r="T95">
         <v>1.3171498639575701</v>
       </c>
-      <c r="Q95">
+      <c r="U95">
         <v>13.689383800394101</v>
       </c>
-      <c r="R95">
+      <c r="V95">
         <v>0.161524236308806</v>
       </c>
-      <c r="S95">
+      <c r="W95">
         <v>3.4880076711821899</v>
       </c>
-      <c r="T95">
+      <c r="X95">
         <v>57.752352976634903</v>
       </c>
-      <c r="U95">
+      <c r="Y95">
         <v>2.8801424349645899</v>
       </c>
-      <c r="V95">
+      <c r="Z95">
         <v>1.3131428757433901</v>
       </c>
-      <c r="W95">
+      <c r="AA95">
         <v>18.561251256752801</v>
       </c>
-      <c r="X95">
+      <c r="AB95">
         <v>0.24623813506648901</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7568,62 +7697,62 @@
       <c r="F96">
         <v>3.4417</v>
       </c>
-      <c r="G96">
+      <c r="J96">
         <v>3.1893168805337702</v>
       </c>
-      <c r="H96">
+      <c r="K96">
         <v>99.858156675305395</v>
       </c>
-      <c r="I96">
+      <c r="L96">
         <v>0.93529458880178296</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>1.3207389453463201</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>11.5526532470899</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>0.14103636405490999</v>
       </c>
-      <c r="M96">
+      <c r="Q96">
         <v>3.08872718339616</v>
       </c>
-      <c r="N96">
+      <c r="R96">
         <v>99.808843354043205</v>
       </c>
-      <c r="O96">
+      <c r="S96">
         <v>0.92405632016431805</v>
       </c>
-      <c r="P96">
+      <c r="T96">
         <v>1.31841968314627</v>
       </c>
-      <c r="Q96">
+      <c r="U96">
         <v>14.3725113128628</v>
       </c>
-      <c r="R96">
+      <c r="V96">
         <v>0.19006913697715599</v>
       </c>
-      <c r="S96">
+      <c r="W96">
         <v>2.88518652862476</v>
       </c>
-      <c r="T96">
+      <c r="X96">
         <v>99.709059121817901</v>
       </c>
-      <c r="U96">
+      <c r="Y96">
         <v>0.90131597376644201</v>
       </c>
-      <c r="V96">
+      <c r="Z96">
         <v>1.31372671597151</v>
       </c>
-      <c r="W96">
+      <c r="AA96">
         <v>20.0784212957177</v>
       </c>
-      <c r="X96">
+      <c r="AB96">
         <v>0.28928568688085499</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7642,62 +7771,62 @@
       <c r="F97">
         <v>2.8273600000000001</v>
       </c>
-      <c r="G97">
+      <c r="J97">
         <v>4.9130260068694804</v>
       </c>
-      <c r="H97">
+      <c r="K97">
         <v>50.816946481950197</v>
       </c>
-      <c r="I97">
+      <c r="L97">
         <v>4.8109529840249303</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>1.1326507825688099</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>13.2948143536982</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>0.182012108562702</v>
       </c>
-      <c r="M97">
+      <c r="Q97">
         <v>4.8266038727089997</v>
       </c>
-      <c r="N97">
+      <c r="R97">
         <v>50.774578698893897</v>
       </c>
-      <c r="O97">
+      <c r="S97">
         <v>4.8012975701251399</v>
       </c>
-      <c r="P97">
+      <c r="T97">
         <v>1.1306581770166599</v>
       </c>
-      <c r="Q97">
+      <c r="U97">
         <v>15.7175093116157</v>
       </c>
-      <c r="R97">
+      <c r="V97">
         <v>0.224138857129702</v>
       </c>
-      <c r="S97">
+      <c r="W97">
         <v>4.65187059599109</v>
       </c>
-      <c r="T97">
+      <c r="X97">
         <v>50.688917061020703</v>
       </c>
-      <c r="U97">
+      <c r="Y97">
         <v>4.7817756950271999</v>
       </c>
-      <c r="V97">
+      <c r="Z97">
         <v>1.1266294116926201</v>
       </c>
-      <c r="W97">
+      <c r="AA97">
         <v>20.615854308498101</v>
       </c>
-      <c r="X97">
+      <c r="AB97">
         <v>0.30931315751106803</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7716,58 +7845,58 @@
       <c r="F98">
         <v>2.3816199999999998</v>
       </c>
-      <c r="G98">
+      <c r="J98">
         <v>1.9064266446562499</v>
       </c>
-      <c r="H98">
+      <c r="K98">
         <v>49.942429205537401</v>
       </c>
-      <c r="I98">
+      <c r="L98">
         <v>1.0589098929521901</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>1.0342923793407801</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>5.6736608717785897</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>5.7243268544593197E-2</v>
       </c>
-      <c r="M98">
+      <c r="Q98">
         <v>1.8200045104957701</v>
       </c>
-      <c r="N98">
+      <c r="R98">
         <v>49.900061422481201</v>
       </c>
-      <c r="O98">
+      <c r="S98">
         <v>1.0492544790524001</v>
       </c>
-      <c r="P98">
+      <c r="T98">
         <v>1.0322997737886199</v>
       </c>
-      <c r="Q98">
+      <c r="U98">
         <v>8.0963558296960993</v>
       </c>
-      <c r="R98">
+      <c r="V98">
         <v>9.9370017111593101E-2</v>
       </c>
-      <c r="S98">
+      <c r="W98">
         <v>1.64668799007558</v>
       </c>
-      <c r="T98">
+      <c r="X98">
         <v>49.815094338428601</v>
       </c>
-      <c r="U98">
+      <c r="Y98">
         <v>1.0298908894282199</v>
       </c>
-      <c r="V98">
+      <c r="Z98">
         <v>1.0283036741293801</v>
       </c>
-      <c r="W98">
+      <c r="AA98">
         <v>12.954984515793001</v>
       </c>
-      <c r="X98">
+      <c r="AB98">
         <v>0.183853715057435</v>
       </c>
     </row>
@@ -7782,7 +7911,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L98"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9784,7 +9913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC399F9-FFF3-45D8-9B6D-50B70AD2CD94}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
+++ b/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/data_valencia_comunity/Resultados salida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3211BB-F120-4655-8813-C84C344EA619}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E71FF65-6736-449C-9C0E-9E5DD629D7EF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="165" windowWidth="24660" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>total_assets</t>
   </si>
@@ -103,22 +103,13 @@
     <t>0.98513</t>
   </si>
   <si>
-    <t>prob</t>
-  </si>
-  <si>
     <t>0.91</t>
   </si>
   <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
     <t>0.64</t>
-  </si>
-  <si>
-    <t>6.72</t>
   </si>
   <si>
     <t>0.2</t>
@@ -136,10 +127,22 @@
     <t>eff</t>
   </si>
   <si>
-    <t>efff</t>
+    <t>peer</t>
   </si>
   <si>
-    <t>peer</t>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>prob be eff</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +612,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" t="s">
@@ -634,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
@@ -696,10 +699,10 @@
         <v>460.57785999999999</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2">
@@ -718,7 +721,7 @@
         <v>460.57785999999999</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -783,10 +786,10 @@
         <v>358.13</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>184.97800000000001</v>
@@ -804,7 +807,7 @@
         <v>358.13</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -866,7 +869,7 @@
         <v>356.94675000000001</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -887,7 +890,7 @@
         <v>356.94675000000001</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -925,8 +928,8 @@
       <c r="AA4">
         <v>311.33477352452599</v>
       </c>
-      <c r="AB4">
-        <v>-0.79311853039801805</v>
+      <c r="AB4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -949,10 +952,10 @@
         <v>293.93365999999997</v>
       </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
       <c r="J5">
         <v>103.36555138664001</v>
@@ -1032,7 +1035,7 @@
         <v>268.27539999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>149.892303092551</v>
@@ -1111,6 +1114,9 @@
       <c r="F7">
         <v>259.06299999999999</v>
       </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
       <c r="J7">
         <v>156.47883410399899</v>
       </c>
@@ -1185,6 +1191,9 @@
       <c r="F8">
         <v>193.64809</v>
       </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
       <c r="J8">
         <v>116.36346033663401</v>
       </c>
@@ -1259,6 +1268,9 @@
       <c r="F9">
         <v>189.37</v>
       </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
       <c r="J9">
         <v>253.121296562775</v>
       </c>
@@ -1348,8 +1360,8 @@
       <c r="N10">
         <v>165.06169175550701</v>
       </c>
-      <c r="O10">
-        <v>-8.8934246974778294E-2</v>
+      <c r="O10" t="s">
+        <v>33</v>
       </c>
       <c r="Q10">
         <v>53.427918492939</v>
@@ -1366,8 +1378,8 @@
       <c r="U10">
         <v>169.69526134715301</v>
       </c>
-      <c r="V10">
-        <v>-8.3639628302428493E-3</v>
+      <c r="V10" t="s">
+        <v>33</v>
       </c>
       <c r="W10">
         <v>53.009975385113698</v>

--- a/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
+++ b/articulo 1 XAI/data_valencia_comunity/Resultados salida/3_data_complete_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/data_valencia_comunity/Resultados salida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E71FF65-6736-449C-9C0E-9E5DD629D7EF}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_A34693330069EDCB24E73CFA5F3D013B7259B285" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB21FDA-5848-4AFB-BCBD-0B1C83FE6799}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="165" windowWidth="24660" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>total_assets</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>prob be eff</t>
+  </si>
+  <si>
+    <t>max aspirar</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.86</t>
   </si>
 </sst>
 </file>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +595,13 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -615,71 +624,74 @@
         <v>39</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -701,72 +713,73 @@
       <c r="G2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2">
+      <c r="J2" s="12"/>
+      <c r="K2">
         <v>258.53447999999997</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>70</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>84.151780000000002</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>16.70692</v>
       </c>
-      <c r="N2" s="12">
+      <c r="O2" s="12">
         <v>460.57785999999999</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>265.91310421585501</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>73.617313470299393</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>84.976148334653999</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>16.877046411742</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>253.730900505524</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>-3.5967342178160102</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>249.726191262387</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>65.681804552074695</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>83.167684035040097</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>16.503830302967099</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>707.50299000049995</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4.2936288088642698</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -788,68 +801,68 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>184.97800000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>261</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>21.754999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>19.923999999999999</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>358.13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>189.18922938626801</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>263.064522645392</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>22.2254947771353</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>20.021096873827599</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>240.07547265171399</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-2.0527773727948699</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>181.015017800565</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>259.05717861850599</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>21.312240355323699</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>19.832626876547199</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>469.22534711397702</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1.9317684793701699</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -871,68 +884,69 @@
       <c r="G4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11"/>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>128.93343999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>354</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.75535</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13.70937</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>356.94675000000001</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>134.43675112978201</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>356.69795572977301</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6.37020112921092</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>13.836257960115599</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>202.670947215307</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-2.6826067939932901</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>130.56050589924001</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>354.79765647662902</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5.9371320729840997</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>13.7468847012516</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>311.33477352452599</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,68 +968,68 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>103.36555138664001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>967.58311336234999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>30.453613541189998</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>36.769893342089702</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>317.77227231816101</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.41451492852264699</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>102.657645489882</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>967.236067969994</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>30.374523566131</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>36.753571398249903</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>337.61718894066598</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.75958594547310099</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>101.715502551903</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>966.77418967929896</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>30.269263726075899</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>36.731848731164902</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>364.02853561304499</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1.2188365650969499</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1037,65 +1051,65 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>149.892303092551</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1074.36509747897</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>103.38696358202699</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>31.6764286546039</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>361.763182665724</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.62560139962094</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>149.658066051329</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1074.2502645806301</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>103.360793717031</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>31.671027931358701</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>368.32961271559901</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1.7397810022943301</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>145.66611905647301</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1072.2932434321399</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>102.91479801378</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>31.5789869765368</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>480.236937738969</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>3.68566846479079</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1117,62 +1131,62 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>156.47883410399899</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>752.92521339259304</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>77.691166115307894</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>34.113420400237203</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>377.704446163228</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2.0629829421198398</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>155.60800123300501</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>752.498294310868</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>77.593873310765701</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>34.093341904946598</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>402.11673852606901</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.4874732391556198</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>153.43705833281001</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>751.43400633977797</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>77.351327203129898</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>34.0432872179341</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>462.97536541976802</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3.5457063711911401</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1194,62 +1208,65 @@
       <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="J8">
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
         <v>116.36346033663401</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>773.30930165538098</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>53.924967982301098</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>24.529224512865799</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>290.32641629882897</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.6810797952747401</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>116.091443127473</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>773.17594732182704</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>53.894577171337801</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>24.522952705226199</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>297.95194796965097</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1.8136754628954701</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>114.799361383959</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>772.54251423744597</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>53.750220819262204</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>24.493161618938199</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>334.17322340605699</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2.44350488409389</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1271,62 +1288,65 @@
       <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="J9">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
         <v>253.121296562775</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>643.20380349093602</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>140.05176026988801</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>27.740491663075801</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>349.26345429913499</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2.7802886718180502</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>251.95483387765799</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>642.63195417864699</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>139.921438563154</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>27.713596932399099</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>381.963216845891</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3.3488846770666298</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>243.017935151686</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>638.25070867834097</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>138.92297379463099</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>27.507541918907101</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>632.49370528103304</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7.7052048403557398</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1345,62 +1365,62 @@
       <c r="F10">
         <v>170.17626999999999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>53.593206727672097</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>442.08944309756299</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>25.010303651566201</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>19.251866611721201</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>165.06169175550701</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>53.427918492939</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>442.00841181849398</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>24.991837012960101</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>19.248055617495801</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>169.69526134715301</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>33</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>53.009975385113698</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>441.80351844141899</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>24.945142798198798</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>19.2384192463829</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>181.41157302888499</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.195363755649511</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1419,62 +1439,62 @@
       <c r="F11">
         <v>167.72279</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>89.257051291407194</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>698.77303208959802</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>22.923309916952999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21.6928742883902</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>237.883859464354</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1.2199875691561599</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>89.106875123849605</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>698.69940938461502</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>22.906531656733598</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>21.689411727922501</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>242.09378840762099</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.2931914273217699</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>88.667208419459399</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>698.48386618228994</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>22.857410398041299</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>21.679274483282899</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>254.41908352139799</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1.5075083831462299</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1493,62 +1513,62 @@
       <c r="F12">
         <v>161.14993999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>117.23920059045</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>687.061577459369</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>79.565542829990804</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>22.8518737590908</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>271.99375047900202</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.92739466394518</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>116.868010440449</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>686.87960435837397</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>79.524072035863895</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>22.843315354916001</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>282.39942390481201</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2.1083325020526198</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>114.43071735628401</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>685.68474026901197</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>79.251768259159803</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>22.787119522923199</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>350.72471722619002</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3.2963988919667599</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1567,62 +1587,62 @@
       <c r="F13">
         <v>127.74166</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>86.211997774043596</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>299.460408854045</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>22.197029774157802</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>11.052922407976901</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>158.59682055693801</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.53652135879865803</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>84.740460232819302</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>298.73899895238901</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>22.032623928738399</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>11.018993670815499</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>199.84882869284499</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1.2538270884968701</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>83.762426135298199</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>298.259525298239</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>21.9233541900145</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>10.9964434735558</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>227.26632190512501</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1.73057296982067</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1641,62 +1661,62 @@
       <c r="F14">
         <v>120.93779000000001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>35.738841861255402</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>683.00130877863296</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>12.024593075997799</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>20.449780403550999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>178.045431986176</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.99300956868041201</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>35.480519962972501</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>682.87466846534403</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>11.995732357947499</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>20.443824364004399</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>185.28703931940501</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.1189294127577301</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>34.916650956482798</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>682.59823604474798</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>11.9327347393882</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>20.430823429418201</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>201.094131012047</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.39378918209652</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1715,62 +1735,62 @@
       <c r="F15">
         <v>112.76600000000001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>85.559480485681405</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>379.62902793079502</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>31.616562062058598</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>14.6705216072239</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>191.16158456722101</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.36317247412159</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>84.722177513733101</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>379.21854662282402</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>31.523015347062199</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>14.6512161993333</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>214.63392424147199</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.7713185135166201</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>84.025133415258495</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>378.87682614309102</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>31.445138893968799</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>14.6351446922568</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>234.17434914795399</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2.1110949117947202</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1789,62 +1809,62 @@
       <c r="F16">
         <v>106.79303</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>94.327085084158597</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>232.57732541384499</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6.1614944955752797</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9.1727011282164401</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>130.96261157470701</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.42026994881868601</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>93.954005925760896</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>232.39442624108901</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>6.11981265414994</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>9.1640991698218794</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>141.42124008156401</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.60212859017349396</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>91.208332220793494</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>231.04838093677799</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>5.8130554059892701</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>9.1007931114598506</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>218.39145038392701</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.94051611022015</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1863,62 +1883,62 @@
       <c r="F17">
         <v>106.55417</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>55.099973894461797</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>674.06011433544302</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>27.107104579443401</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>11.179116096503201</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>160.29916433966699</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.93453856247266298</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>54.938463676522503</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>673.98093519989504</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>27.089060035433899</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>11.175392210717201</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>164.82682376921801</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.01326724012247</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>54.400096283391697</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>673.71700474807005</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>27.028911555402399</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>11.1629792580972</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>179.919021867721</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1.27569616562181</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1937,62 +1957,62 @@
       <c r="F18">
         <v>104.98694</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>37.458267865461401</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>77.821502824468993</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7.0015265409167702</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.9857162224093501</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>58.011370187555698</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-0.81682921401769504</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>37.050714303819298</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>77.621702842078193</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>6.9559930862964299</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.9763193995049</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>69.436428923527302</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.61816591339845495</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>36.261108793894103</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>77.234604846067199</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>6.8677753155835601</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>2.9581137356622298</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>91.571652801331098</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-0.233270155999417</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2011,62 +2031,62 @@
       <c r="F19">
         <v>93.702399999999997</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>26.851798758971199</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>185.42375500320901</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2.7760317262727998</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6.3218296850398996</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>69.471037497404197</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-0.421344219273947</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>26.743653028245799</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>185.37073739490401</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.7639492684419098</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6.3193362059609699</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>72.502715887366605</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.36862823336223699</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>26.500443197138399</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>185.251505655702</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2.7367769287785602</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>6.3137286001720998</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>79.320682572216398</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-0.250074815263849</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2085,62 +2105,62 @@
       <c r="F20">
         <v>87.709950000000006</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>54.771565559728103</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>425.85776765571001</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>13.6040107447525</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>15.7742894994945</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>153.02562954851899</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.13573407202216</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>54.624222904766</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>425.785534058368</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>13.5875490554808</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>15.7708922703564</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>157.15612587021499</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1.2075567253167201</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>54.2242253767118</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>425.58943836302097</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>13.5428597900539</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>15.761669664330901</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>168.36936428199701</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1.4025368129464899</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2159,62 +2179,62 @@
       <c r="F21">
         <v>86.428319999999999</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>91.801321633779907</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>50.299661387262901</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>12.0384813882931</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.6974534195975099</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>69.292938357752803</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-0.29795658412688703</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>91.506636323855602</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>50.155194192579401</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>12.0055580097495</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1.6906589613212999</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>77.553931001143695</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.15431127753777299</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>86.491319029952393</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>47.696473667677203</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>11.445227432613899</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1.5750225079665101</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>218.14967118192999</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2.2904213442192698</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2233,62 +2253,62 @@
       <c r="F22">
         <v>81.399730000000005</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>51.9058597950335</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>510.85614703012902</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>21.6520014119804</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12.451103279610001</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>146.808080940352</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.13734547770505</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>51.758517140071298</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>510.78391343278702</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>21.6355397227086</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>12.447706050471901</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>150.938577262048</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1.2091681309996101</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>51.325934217169703</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>510.571842999566</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>21.5872098913851</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>12.437732134156199</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>163.06529082189701</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1.4200320746464501</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2307,62 +2327,62 @@
       <c r="F23">
         <v>80.893169999999998</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>24.895020509160702</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>212.092915866666</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>11.483425078935101</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>8.00561994004517</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>75.580010201579796</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-9.2387259152401202E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>24.782624509542099</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>212.03781459689901</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>11.4708677646829</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8.0030284639718694</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>78.7308375238987</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-3.7599465934117199E-2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>24.508718291984302</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>211.90353419158399</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>11.4402659064212</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7.9967131021125697</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>86.409324275768398</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>9.5917004933970207E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2381,62 +2401,62 @@
       <c r="F24">
         <v>79.944609999999997</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>47.052791995225199</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>428.07122719657298</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>27.853547147023601</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>10.9224587471398</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>133.05414336709899</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.92348892350427003</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>46.880892231102699</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>427.98695466634098</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>27.834341842873201</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10.918495313145399</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>137.87305574241</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1.0072820190145899</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>46.534259190262297</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>427.81702049823502</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>27.7956146636249</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>10.9105031138269</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>147.59031311460399</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.1762494149062701</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2455,62 +2475,62 @@
       <c r="F25">
         <v>74.701719999999995</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>43.258564698280303</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>242.47962484308201</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>23.881779005598698</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8.3926661580360502</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>104.458062625205</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.51741469141581098</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>43.0536072872112</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>242.379146057036</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>23.8588803737271</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>8.3879405251965107</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>110.203688918846</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.61732184375503496</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>42.528462952859002</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>242.12169810753599</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>23.800209224784101</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>8.3758324521145404</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>124.925201450017</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.87330514652281599</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2529,62 +2549,62 @@
       <c r="F26">
         <v>72.687579999999997</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>29.916256591795101</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>80.295031028458894</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10.3819861518013</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.92057564849891</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>55.816973762989697</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-0.29335256789005698</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>29.604570206298298</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>80.142229187928294</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>10.347163347572501</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.9133892022452299</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>64.554562135806904</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.14142003207464701</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>29.120039552480499</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>79.904691781285194</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>10.293029715544201</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2.9022175448872201</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>78.137540424459203</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>9.4766000874762502E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2603,62 +2623,62 @@
       <c r="F27">
         <v>72.566689999999994</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>28.669291683780099</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>80.360319087594704</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>13.0780249863354</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.1839262209891199</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>51.962750549149597</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-0.35826919682936798</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>28.3642168276726</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>80.210758498226895</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>13.0439408476509</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2.17689221450446</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>60.514996138301001</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.20955947237974001</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>27.838600241221201</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>79.953079030786597</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>12.985216936883299</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2.1647732528675498</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>75.249747439733795</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>4.6654031199882803E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2677,62 +2697,62 @@
       <c r="F28">
         <v>72.10136</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>70.705827405149904</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>159.33700979192</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>33.1007477216518</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>8.0039488081992793</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>110.01278510650199</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.65921839151019401</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>69.728265559728101</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>158.85776765571001</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>32.991530744752502</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>7.9814094994945304</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>137.417039548519</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.13573407202216</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>68.0144626915949</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>158.017589050732</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>32.800058083318902</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>7.9418949336541802</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>185.460536828752</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.97113281819507</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2751,62 +2771,62 @@
       <c r="F29">
         <v>72.060540000000003</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>103.789682883013</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>82.4999984218192</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>70.285832046162497</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4.9925043508698801</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>100.65187084216301</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.497157019973757</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>103.08980527194301</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>82.156888834445795</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>70.207639022121597</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>4.9763675124638702</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>120.271728370216</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.83831462312290395</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>98.352172212391594</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>79.834300858380104</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>69.678332397844301</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>4.8671335294078197</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>253.08307163703901</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3.1476891675171301</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2825,62 +2845,62 @@
       <c r="F30">
         <v>65.312870000000004</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>44.260058227860398</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>174.455315459361</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>17.965599014016899</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>7.0268928597684202</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>96.459283502699094</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.54158577665917196</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>43.911536178623003</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>174.28445521949499</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>17.926660787470102</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>7.0188571062302101</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>106.22949595594</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.71147397579822103</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>43.382141575377702</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>174.02492360853299</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>17.8675147821058</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>7.0066510361538699</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>121.070157419468</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.96952908587257602</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2899,62 +2919,62 @@
       <c r="F31">
         <v>65.175539999999998</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>39.146327440072803</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>329.147859634778</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>12.964421310962599</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>11.8538528588216</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>113.90304041042801</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.84729245478472404</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>39.011263339690899</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>329.08164550388102</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>12.949331429130099</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11.850738732111701</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>117.689328705316</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.91312988697140096</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>38.653296248468799</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>328.906154905211</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>12.9093379660917</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>11.842485207474899</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>127.72431656379401</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.0876221023472801</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2973,62 +2993,62 @@
       <c r="F32">
         <v>63.40157</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>39.0356171003803</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>179.66182946201801</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>4.0635625615502802</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>5.2125054507658302</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>82.739000429133895</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.33624665249652702</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>38.838687974998201</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>179.565286480955</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4.0415608806966503</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>5.2079649233600902</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>88.259567628322998</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.432240391034445</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>38.496777455150202</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>179.397667492252</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>4.0033613196941902</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>5.2000816095908897</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>97.844437297898295</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.59890577880771301</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3047,62 +3067,62 @@
       <c r="F33">
         <v>61.48516</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>54.600867139117703</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>271.921666607205</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>19.9265030083391</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>8.1933347406551604</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>123.14693895625</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1.0721986479539001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>54.233455005910898</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>271.74154564973099</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>19.8854543088088</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>8.1848634449197597</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>133.446702219965</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1.2512948795666099</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>53.725783999230501</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>271.49266386401803</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>19.828735347375599</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>8.1731582483701892</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>147.678380251448</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>1.4987607522962501</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3121,62 +3141,62 @@
       <c r="F34">
         <v>58.733089999999997</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>65.338220655527707</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>407.37204301717497</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>25.902806436764699</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>8.9441253112517494</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>151.82370955786899</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1.6186953752656901</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>65.018978236443004</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>407.21553688960103</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>25.867139443342602</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>8.9367646481191905</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>160.77311825487499</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.77431112407056</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>64.462665263541197</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>406.94280875604801</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>25.804986013976698</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>8.9239379304118494</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>176.368389623328</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>2.0454876804198898</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3195,62 +3215,62 @@
       <c r="F35">
         <v>56.053069999999998</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>45.488918701522699</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>276.01126405006102</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>18.8216518344551</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>8.6360686114130107</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>112.591444864916</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.98311093377122605</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>45.301434618125299</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>275.91935142780301</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>18.800705390093199</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>8.6317458551058692</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>117.84723665886899</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.07450065607231</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>44.931188972323099</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>275.73784136268802</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>18.759340119615398</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8.6232092280408796</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>128.22643254415499</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1.2549780925560701</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3269,62 +3289,62 @@
       <c r="F36">
         <v>55.245080000000002</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>35.8891067824405</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>211.461334925806</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>10.0460108214562</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>5.7547459621966004</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>86.047285475891101</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.53560055555129205</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>35.742708631676898</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>211.38956436434501</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>10.0296546558336</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>5.7513705101683499</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>90.151304257062904</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.606962807222166</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>35.464552145225902</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>211.25320029756799</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>9.9985779411506304</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>5.7449571513146802</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>97.948939941289197</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.74255108539682702</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3343,62 +3363,62 @@
       <c r="F37">
         <v>54.911090000000002</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>67.195977906106094</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>52.8058336208207</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>5.1652104164446602</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>3.8989581319321802</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>66.014005326266698</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.19306174753109601</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>66.911209890265795</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>52.666228302881301</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>5.1333950362174701</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3.8923923333095001</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>73.996983794158893</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.33187283707153797</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>64.059751715069197</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>51.268322979966101</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>4.8148191393488604</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3.82664723864319</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>153.93267863517499</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>1.7218253389706999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3417,62 +3437,62 @@
       <c r="F38">
         <v>52.773000000000003</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>47.585990816791202</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>133.35483667331499</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>19.948970382145198</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>6.3546572269288797</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>89.665039796339499</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.64149292899839605</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>47.002759474232803</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>133.06891201717099</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>19.8838095287778</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>6.3412098615905403</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>106.014921069717</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.925790931622685</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>46.222126754193098</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>132.68621286202301</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>19.796594232732101</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>6.3232110802915296</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>127.898608312546</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>1.30631287359673</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3491,62 +3511,62 @@
       <c r="F39">
         <v>52.231670000000001</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>37.720219458201797</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>343.956857334115</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>20.4161228056767</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>10.5425298010045</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>111.88115587644999</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>1.0372081245539899</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>37.588461122514502</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>343.89226382880003</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>20.401402256616301</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>10.5394918941791</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>115.574772779504</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>1.1014341510577701</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>37.275830232819203</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>343.73899895238901</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>20.366473928738401</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>10.532283670815501</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>124.338838692845</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>1.2538270884968701</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3565,62 +3585,62 @@
       <c r="F40">
         <v>46.878</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>34.567903136829003</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>239.25227422580701</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>10.841106893852301</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>7.2067235970949604</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>89.634815022336497</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.743471888644194</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>34.451256868317301</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>239.195089294578</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>10.828074723178799</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>7.2040341240272898</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>92.904791277012094</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.80033148916905195</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>34.193879474232801</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>239.06891201717099</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>10.799319528777801</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>7.1980998615905403</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>100.11992106971699</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>0.925790931622685</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3639,62 +3659,62 @@
       <c r="F41">
         <v>42.861989999999999</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>51.281377152287803</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>169.44698081351399</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>23.685329588331701</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>1.53958087179095</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>74.484999232125503</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.54987300588546695</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>50.546080633774899</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>169.08650738062599</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>23.603179427446499</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>1.5226273917652</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>95.097764529817098</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.90829566992272903</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>49.3347539992305</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>168.492663864018</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>23.467845347375601</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>1.4946982483701901</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>129.05521025144799</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>1.4987607522962501</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3713,62 +3733,62 @@
       <c r="F42">
         <v>42.340600000000002</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>34.081713034921201</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>149.406465173979</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>8.6795362690285707</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>5.1788353746782301</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>76.280394027948205</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.59015814795773502</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>33.883839405340701</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>149.309459157036</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>8.6574290645257594</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>5.1742730701626298</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>81.827438767660993</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.68661228811933595</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>33.554679692172101</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>149.148091152718</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>8.6206540727872003</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>5.1666837473765401</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>91.054861640166493</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>0.84706225397288204</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3787,62 +3807,62 @@
       <c r="F43">
         <v>37.630429999999997</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>52.133182630151097</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>85.609969443413206</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>6.00953391284233</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2.2937764144615498</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>59.9333449677871</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.38781163434902999</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>51.801189404387003</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>85.447212331453997</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>5.97244235015624</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>2.2861217603458801</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>69.240200461863594</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.54964280507362595</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>49.988685847513203</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>84.558646476974303</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>5.76994246738351</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>2.2443314865251902</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>120.050600726822</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>1.4331535209214199</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3861,62 +3881,62 @@
       <c r="F44">
         <v>37.443269999999998</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>16.271083232061301</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>58.062355498560002</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>6.4697805180893102</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>1.85443265079443</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>33.877627876143201</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>-6.20007519893193E-2</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>16.1407416526717</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>57.998456547065302</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>6.4552182545027401</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>1.8514274096337999</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>37.531528468412297</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>1.53467207894294E-3</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>15.8866700232819</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>57.8738998952389</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>6.4268323928738402</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>1.8455693670815501</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>44.653986869284502</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>0.125382708849686</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3935,62 +3955,62 @@
       <c r="F45">
         <v>36.991599999999998</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>23.3731247633579</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>92.790090400887195</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1.4715126123726101</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>3.6719677101969599</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>48.9947517040722</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.20871540273632</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>23.246088948663001</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>92.727812074973997</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>1.4573196815581499</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>3.6690386889208302</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>52.555980904508303</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.27063942112169098</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>22.996739840265601</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>92.605570602549406</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>1.42946143817514</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>3.6632895319178802</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>59.546051602762098</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>0.39218544977401898</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4009,62 +4029,62 @@
       <c r="F46">
         <v>36.411650000000002</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>24.529295739883601</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>171.53935647165301</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>11.534671556342699</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>4.4470854052079503</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>62.7523898976496</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0.45802288196069701</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>24.411704967173399</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>171.481708504544</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>11.52153386202</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>4.4443741550304203</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>66.048843692848806</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.51534288410923701</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>24.161883606676799</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>171.35923551417901</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>11.493622856812401</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>4.4386141094725398</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>73.052153161364501</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>0.637119113573407</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4083,62 +4103,62 @@
       <c r="F47">
         <v>31.452809999999999</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>18.523667653243901</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>63.915804642414699</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.85006228312445298</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2.50718019552385</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>36.267309451890704</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>8.3716361906369094E-2</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>18.404660124236099</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>63.857462121484801</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>0.83676630332801605</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>2.50443627968153</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>39.603479557875502</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.14172696649043501</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>18.174673351907298</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>63.744712884608397</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>0.81107129475315398</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>2.4991335534307102</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>46.050760675393597</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>0.25383476185726001</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4157,62 +4177,62 @@
       <c r="F48">
         <v>31.419969999999999</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>23.601712681104999</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>139.532873969327</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>8.0573942252541801</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>4.2740105256699099</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>58.131395464981203</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.46446850469225898</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>23.486955420990199</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>139.47661510985901</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>8.0445731018790507</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>4.27136460682196</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>61.3484166386094</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.52040730196975105</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>23.247523606676801</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>139.35923551417901</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>8.0178228568123995</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>4.2658441094725399</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>68.060473161364499</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>0.637119113573407</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4231,62 +4251,62 @@
       <c r="F49">
         <v>29.776669999999999</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>18.485901334731999</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>85.797962010853894</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>5.1393665144086302</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>2.7087479210645702</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>41.329703515169399</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.200888575133708</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>18.370671822517998</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>85.741471633445599</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>5.1264926292089097</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>2.7060911136616901</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>44.559963459059503</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.25705757322304101</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>18.144463066983199</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>85.630574540090805</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>5.1012197152307603</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>2.7008754958502998</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>50.901334414482903</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>0.36732376209513401</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4305,62 +4325,62 @@
       <c r="F50">
         <v>29.137869999999999</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>10.446010579006501</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>207.71461555238301</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>2.3755322575565798</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5.8044680412898302</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>45.456860809433401</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.28376086739665901</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>10.2953621593497</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>207.64076132945999</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>2.35870123551268</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>5.8009945922672204</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>49.680028522961699</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.35719492637410699</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>9.9992600931277007</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>207.495599580955</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>2.3256195714953498</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>5.7941674683262097</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>57.980737477138099</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>0.50153083539874599</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4379,62 +4399,62 @@
       <c r="F51">
         <v>28.44257</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>30.405513100952501</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>76.579177557366904</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>21.892756590171999</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>2.3551682366558802</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>52.506241412612297</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.41842834232395298</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>30.091465454959501</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>76.425218127135196</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>21.857669976820301</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>2.34792734762754</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>61.310023636738798</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.57151188219857096</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>29.445424583202399</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>76.108501584944406</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>21.785491800782498</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>2.3330318044835399</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>79.420661354941899</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>0.88642659279778402</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4453,62 +4473,62 @@
       <c r="F52">
         <v>26.661090000000002</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>23.661963050952199</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>87.518519857035002</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>6.0641129921296599</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>4.5002054352642604</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>54.193319221215603</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.47874095502643399</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>23.523120933776401</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>87.450453582616802</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>6.0486010157004904</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>4.4970042001148904</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>58.085517678197803</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.546419993707844</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>23.263382279195699</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>87.323118715507903</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>6.01958201217652</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>4.4910154949034897</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>65.366841322212196</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>0.67303044022068503</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4527,62 +4547,62 @@
       <c r="F53">
         <v>24.706</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>46.420244954003302</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>155.95639429823399</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>44.314167282027498</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>5.5039180238946397</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>84.381963416973605</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>1.0376685261776699</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>46.084473711445398</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>155.79178504275399</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>44.276653624744696</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>5.4961762613395297</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>93.794729073144893</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>1.201341303397</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>45.4025416801463</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>155.457473137108</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>44.200465550038103</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>5.48045318802086</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>112.911513331248</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>1.53375127569617</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4601,62 +4621,62 @@
       <c r="F54">
         <v>23.335540000000002</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>11.509943905724599</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>85.860934890587799</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>4.9046677306968496</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>2.9251796080054802</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>31.287628003947798</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0.138273954312812</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>11.419743754770201</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>85.816714964010004</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>4.8945902222003399</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>2.9230998940138799</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>33.816233123960103</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.182242309374544</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>11.228953906678299</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>85.723181716170004</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>4.8732744450663699</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>2.9187009178222301</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>39.164696309745203</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>0.27524343735852203</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4675,62 +4695,62 @@
       <c r="F55">
         <v>22.24624</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>13.073381771564099</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>79.818567107531507</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>7.5178823167970599</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>2.3532770024533201</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>32.6210229618653</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>0.180400702879812</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>12.970903066029599</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>79.768327714508601</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>7.5064330008612297</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>2.3509141860335498</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>35.4938361086855</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.23035427904942399</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>12.7616953860673</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>79.665765267000907</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>7.4830595125682899</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>2.3460905561996399</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>41.3586113346826</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>0.33233323869522102</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4749,62 +4769,62 @@
       <c r="F56">
         <v>21.01859</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>14.607954276525501</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>91.708827603877694</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>5.1770332119418496</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>3.3103358274165799</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>37.668550065979503</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>0.28951588769269698</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>14.513503856678</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>91.662524015838102</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>5.16648084702405</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>3.30815811643062</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>40.316304118348398</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.33555605006100298</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>14.3142134707997</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>91.564823445074595</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>5.1442153570474698</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>3.3035631462502302</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>45.903065168846702</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>0.432700792658128</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4823,62 +4843,62 @@
       <c r="F57">
         <v>19.96846</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>4.0744544925575097</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>100.063513088261</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.42968432721226002</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>2.5944570935690798</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>16.336624024833998</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>-6.3151756048526894E-2</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>3.9686700223282898</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>100.011653069657</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>0.417865678504315</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>2.5920180572647999</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>19.302108563487099</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-1.15867741960243E-2</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>3.75473982137366</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>99.906775442747005</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>0.39396457196548101</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>2.5870855418815899</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>25.299271492102601</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>9.2694193568188796E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4897,62 +4917,62 @@
       <c r="F58">
         <v>19.863409999999998</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>24.796973422706799</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>198.22865939590699</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>5.47454518774419</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>4.6186529644921199</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>63.970579589044704</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.76695237145202999</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>24.693077960874501</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>198.17772544906401</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>5.4629375863345997</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>4.6162574824075602</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>66.883109046650404</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.81759655005716603</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>24.453173894461798</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>198.06011433544299</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>5.4361345794433698</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>4.6107260965031998</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>73.608404339667302</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>0.93453856247266298</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4971,62 +4991,62 @@
       <c r="F59">
         <v>19.832000000000001</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>43.0087549511424</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>84.369653821487702</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>2.3072871389189098</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.5729540944443801</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>55.876758499581499</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>0.62676007704053804</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>42.7093471202258</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>84.222871447402198</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>2.2738361421294599</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>2.5660507506188699</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>64.270138845590793</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.77270739174806802</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>41.614666754193102</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>83.686212862023396</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>2.1515342327320699</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>2.54081108029153</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>94.957608312545901</v>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>1.30631287359673</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5045,62 +5065,62 @@
       <c r="F60">
         <v>18.517510000000001</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>13.1710479730909</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>56.840792829790601</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2.8037874519576098</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1.82037230372659</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>27.621371016728201</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>0.15830142494302499</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>13.0704582759533</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>56.791479508528397</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>2.7925491833201401</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>1.8180530415265299</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>30.441229082501099</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.20733419786527099</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>12.8706956379758</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>56.693547419824696</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>2.7702309315189799</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>1.81344718279122</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>36.041228903261199</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>0.30470914127423798</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5119,62 +5139,62 @@
       <c r="F61">
         <v>17.547599999999999</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>15.161654865265699</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>97.635899452715407</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>7.7572832371963099</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>2.7957659326136901</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>38.367772698460499</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>0.36202914342277898</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>15.0591761597311</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>97.585660059692401</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>7.7458339212604796</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>2.7934031161939199</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>41.240585845280698</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.41198271959239102</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>14.845718210875701</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>97.481013950722897</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>7.7219855765462402</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>2.7884814893656298</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>47.2245100036343</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>0.516033486544762</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5193,62 +5213,62 @@
       <c r="F62">
         <v>17.390029999999999</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>10.3896191666023</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>94.806991210521602</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>4.4004742255676099</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>2.3901525747068302</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>28.426751474957499</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>0.191910743471888</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>10.301308024044801</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>94.763697355704593</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>4.3906077643694603</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>2.3881164149349501</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>30.902401513922399</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.234958295286254</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>10.113351688548301</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>94.671553215505895</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>4.3696085581830202</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>2.3837827700728802</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>36.171432078136498</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>0.326578218399183</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5267,62 +5287,62 @@
       <c r="F63">
         <v>17.275739999999999</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>7.1330646104962696</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>50.021376823144898</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>0.72433167513705499</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>1.67791537657185</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>16.0533602124897</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>-2.1255208293368501E-2</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>7.0475869805342697</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>49.979472075969099</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>0.71478178488643895</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>1.6759445481295601</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>18.4495776298835</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>2.0411138649948399E-2</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>6.8771039727094996</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>49.895894099557701</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>0.69573476620979602</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>1.67201377979989</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>23.228773694409298</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>0.103513631724741</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5341,62 +5361,62 @@
       <c r="F64">
         <v>16.836760000000002</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>17.487922042364499</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>99.545144420157797</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>8.8107006019574001</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>3.0371576190812002</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>42.846530641103499</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>0.45226786166465799</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>17.374581538547499</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>99.489580114510304</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>8.7980377640560299</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>3.0345443658980402</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>46.023835503946103</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.50751605650662601</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>17.1412890015242</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>99.375210252052497</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>8.7719734227090491</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>3.0291654197627</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>52.563788013297199</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>0.62123525755634101</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5415,62 +5435,62 @@
       <c r="F65">
         <v>16.447790000000001</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>11.050826847518101</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>95.771800483611599</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.94899442823007096</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>3.0748575143574999</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>29.496804554757901</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>0.22690126687180101</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>10.961098948663</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>95.727812074973997</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>0.93896968155815397</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>3.0727886889208298</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>32.012170904508302</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.27063942112169098</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>10.772198108968</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>95.635204898894798</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>0.91786495172253901</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>3.0684332669489001</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>37.307679009246002</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>0.36271974585830302</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5489,62 +5509,62 @@
       <c r="F66">
         <v>15.55111</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>14.511479453433701</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>78.645623206203695</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>5.7967592338290501</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>2.9355432519207398</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>35.815254347462997</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>0.35236070932543401</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>14.4118342604945</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>78.596772920821905</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>5.7856264888407596</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>2.93324576683055</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>38.608634872712202</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.40093308062399702</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>14.2054600931277</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>78.4955995809554</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>5.7625695714953498</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>2.9284874683262099</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>44.393977477138201</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>0.50153083539874599</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5563,62 +5583,62 @@
       <c r="F67">
         <v>15.494440000000001</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>11.4016683599228</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>59.800740226136298</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>4.1146896563036996</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>2.1780985837237301</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>26.888608272027302</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>0.19812616539160899</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>11.308162444273799</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>59.7548996739771</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>4.1042428150350698</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>2.1759426498476202</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>29.509884783872501</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.24370592613623199</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>11.118317100380301</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>59.661829462017501</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>4.0830325615502803</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>2.1715654507658302</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>34.8318704291339</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>0.33624665249652702</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5637,62 +5657,62 @@
       <c r="F68">
         <v>14.96477</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>5.5440523763352898</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>119.85769363942499</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2.0703790651526002</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>3.2557171682364601</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>23.102200787613601</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>0.14149676567859301</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>5.4326008809152198</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>119.803055405538</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>2.05792727454959</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>3.25314746927303</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>26.2265505694089</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.19582415727319399</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>5.2002528480903303</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>119.689148578961</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>2.03196845685178</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>3.2477903002475501</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>32.740025538236303</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>0.30908295669922697</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5711,62 +5731,62 @@
       <c r="F69">
         <v>14.765169999999999</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>8.8936583599228491</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>89.800740226136298</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>3.7247496563036999</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>2.69346858372373</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>26.159338272027298</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>0.19812616539160899</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>8.8053472173654193</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>89.757446371319304</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>3.7148831951055499</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>2.6914324239518499</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>28.634988310992199</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.241173717205975</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>8.6169186297696196</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>89.665070713180299</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>3.6938312270945199</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>2.6870878905348499</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>33.917257645468098</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>0.33302384113074601</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5785,62 +5805,62 @@
       <c r="F70">
         <v>14.4321</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>5.6022690986637498</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>85.909785175969503</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>3.7939204756851401</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>2.3706070930956802</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>19.590807478698601</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>8.9701583014248895E-2</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>5.5106521914116602</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>85.864870695571099</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>3.7836846817148699</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>2.36849471343929</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>22.159128909496399</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.134360540511506</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>5.3198623433196701</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>85.771337447731199</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>3.7623689045808901</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>2.3640957372476401</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>27.507592095281499</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>0.227361668495484</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5859,62 +5879,62 @@
       <c r="F71">
         <v>13.24024</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>10.487621418701501</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>63.807222728461802</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>1.35185698739219</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2.2062334632617602</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>24.263722704695699</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>0.191680542660047</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>10.399310276144099</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>63.763928873644801</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>1.3419905261940399</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>2.2041973034898801</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>26.739372743660599</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.23472809447441301</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>10.219854478433801</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>63.675952056369603</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>1.3219410328502099</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>2.2000596526165501</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>31.770105443161398</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>0.322204402974194</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5933,62 +5953,62 @@
       <c r="F72">
         <v>13.09797</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>7.97296407366363</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>79.879456325803602</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>2.43879867666397</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>1.48253069239987</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>19.990956383000199</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>0.119857889365489</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>7.8870141916023897</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>79.837320060687603</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>2.4291960245887698</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>1.48054897540264</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>22.400412570655899</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.16175443712064799</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>7.7103919064875299</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>79.7507323510535</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>2.4094631021924702</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>1.47647665585888</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>27.3517126485857</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>0.24784954074938001</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6007,62 +6027,62 @@
       <c r="F73">
         <v>13.08466</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>6.4993887627857401</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>66.872742305537898</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>5.1278485837508896</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>2.3069049243069002</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>20.361570720593701</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>0.12653371290889401</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>6.4115498723275497</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>66.829679968661097</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>5.1180348843773302</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>2.30487965308996</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>22.823981989296801</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.16935106391141799</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>6.2287883099226002</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>66.740082525804397</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>5.0976160582613703</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>2.3006657823321102</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>27.947386080630501</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>0.25843877809408999</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6081,62 +6101,62 @@
       <c r="F74">
         <v>12.99436</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>6.4999970145035197</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>69.928075093245198</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>3.49965865982767</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>1.3434872889351299</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>17.107204628012902</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>7.1515718878768106E-2</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>6.4145193845415198</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>69.886170346069306</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>3.4901087695770601</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>1.34151646049283</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>19.503422045406801</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.113182065822085</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>6.2369525952281801</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>69.799119600554903</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>3.4702703235315799</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>1.33742236383922</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>24.481199663860199</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>0.19973757107449999</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6155,62 +6175,62 @@
       <c r="F75">
         <v>12.773260000000001</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>15.182805235112999</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>78.621545340423097</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>11.9032320040718</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1.8099208422080399</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>34.414236454694802</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>0.37630159375695299</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>15.0515191515249</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>78.557183353048103</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>11.888564216836</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>1.80689382393755</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>38.094614587487598</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.440297419448899</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>14.770529152478501</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>78.419430178630293</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>11.8571709312056</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>1.8004151337543</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>45.9716828932849</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>0.57726690249460899</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6229,62 +6249,62 @@
       <c r="F76">
         <v>11.94014</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>7.4668579221370699</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>51.917888303876502</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>1.0661871395457501</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>1.5600381925182201</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>16.635490519534098</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>8.1644554599795402E-2</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>7.3818525442742997</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>51.876215074640797</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>1.0566900111197299</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>1.5580782526308501</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>19.018469166666101</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.123080700731271</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>7.21184178854877</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>51.792868616169599</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>1.0376957542676699</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>1.5541583728561099</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>23.78442646093</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>0.20595299299422101</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6303,62 +6323,62 @@
       <c r="F77">
         <v>11.81171</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>9.0842762257623697</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>76.758372443080106</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>2.3227942424039099</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2.9865759781715702</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>25.628573229944799</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>0.24025291395860901</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>8.99690958740341</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>76.715541624143498</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>2.3130333048549399</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>2.9845615955095499</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>28.077745728385999</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.28284006414929203</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>8.8132035207999895</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>76.625481145406496</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>2.2925089550897999</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>2.98032594764185</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>33.227627360243503</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>0.37238817995564699</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6377,62 +6397,62 @@
       <c r="F78">
         <v>10.51726</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>8.5641927801518207</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>64.791942544408798</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>4.7209047069693204</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>1.9476448186363899</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>22.414501541977401</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>0.206873796241588</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>8.4758816375943908</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>64.748648689591803</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>4.7110382457711699</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>1.9456086588645201</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>24.890151580942302</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.24992134805595401</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>8.2917033188917308</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>64.658356692914595</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>4.6904611341814402</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>1.94136212244188</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>30.053271983061599</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>0.33969966467415003</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6451,62 +6471,62 @@
       <c r="F79">
         <v>10.26188</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>6.5225469814879</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>52.841718901551303</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>3.9214884992559602</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>2.4678458579463101</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>19.3127859356809</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>0.157380621695659</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>6.4356525952281798</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>52.799119600554903</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>3.91178032353158</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>2.46584236383922</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>21.7487196638602</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.19973757107449999</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>6.2561967975178998</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>52.711142783279698</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>3.8917308301877398</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>2.4617047129658798</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>26.779452363361099</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>0.28721387957428102</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6525,62 +6545,62 @@
       <c r="F80">
         <v>10.177619999999999</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>16.8802324461811</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>116.479393325142</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>8.5798962437741206</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>1.87641526948112</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>39.947201395467197</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>0.51764489222765298</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>16.769725454959499</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>116.425218127135</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>8.5675499768202794</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>1.87386734762754</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>43.045073636738799</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.57151188219857096</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>16.545405707821601</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>116.315247105541</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>8.5424881101404893</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>1.8686952840358699</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>49.333489511114898</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>0.68085726782329703</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6599,62 +6619,62 @@
       <c r="F81">
         <v>9.5953800000000005</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>8.8025691496176393</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>49.832689701883602</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>3.0526107880969899</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>1.3148512043040399</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>19.162597975892801</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>0.16635845335747801</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>8.7133135028617303</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>49.7889328111862</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>3.0426388032496599</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>1.31279326742231</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>21.664725555381398</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.20986640679552701</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>8.5348022093499196</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>49.701419029791403</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>3.0226948335550001</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>1.3086773936588301</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>26.668980714358501</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>0.29688231367162599</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6673,62 +6693,62 @@
       <c r="F82">
         <v>9.3238299999999992</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>3.0797319414104098</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>239.56158219391199</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>0.173556691503225</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>5.8462407064812103</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>34.393647952512502</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>0.43592360402391001</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>2.8351053540053401</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>239.441655900889</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>0.146226066366103</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>5.84060043502756</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>41.251330948147903</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.55516762455782198</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>2.4776105148824801</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>239.266396820159</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>0.10628536515220099</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>5.8323577989456803</v>
       </c>
-      <c r="AA82">
+      <c r="AB82">
         <v>51.273080036364</v>
       </c>
-      <c r="AB82">
+      <c r="AC82">
         <v>0.72942963912185999</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6747,62 +6767,62 @@
       <c r="F83">
         <v>9.2422900000000006</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>6.8484205780528304</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>49.8523687268004</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>2.1535855431870599</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2.11336673147308</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>17.684212503636001</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>0.14679138435094799</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>6.7638874522892998</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>49.810927015505001</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>2.1441411765856202</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>2.1114176801406401</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>20.0539523805062</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.187997329670582</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>6.5915154360675796</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>49.726422967332802</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>2.1248831106106199</v>
       </c>
-      <c r="Z83">
+      <c r="AA83">
         <v>2.1074433575912499</v>
       </c>
-      <c r="AA83">
+      <c r="AB83">
         <v>24.886103526079399</v>
       </c>
-      <c r="AB83">
+      <c r="AC83">
         <v>0.27202062599274102</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6821,62 +6841,62 @@
       <c r="F84">
         <v>8.8881700000000006</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>6.9594319225185197</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>50.862787034109402</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>0.62801982529356304</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>2.0300467164449199</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>16.734347841853001</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>0.136432347818079</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>6.8744265446557504</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>50.821113804873697</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>0.61852269686753703</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>2.0280867765575499</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>19.117326488985</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.17786849394955501</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>6.7039435368309803</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>50.737535828462299</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>0.59947567819089398</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>2.0241560082278802</v>
       </c>
-      <c r="AA84">
+      <c r="AB84">
         <v>23.896522553510799</v>
       </c>
-      <c r="AB84">
+      <c r="AC84">
         <v>0.26097098702434701</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6895,62 +6915,62 @@
       <c r="F85">
         <v>8.6679399999999998</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>11.556323034921199</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>169.406465173979</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>8.6654362690285698</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>4.3441253746782298</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>42.607734027948197</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>0.59015814795773502</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>11.445816043699599</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>169.35228997597301</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>8.6530900020747392</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>4.3415774528246498</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>45.7056062692198</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.64402513792865301</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>11.199772699996799</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>169.23166912913001</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>8.6256010914638495</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>4.3359045157062104</v>
       </c>
-      <c r="AA85">
+      <c r="AB85">
         <v>52.603005575640701</v>
       </c>
-      <c r="AB85">
+      <c r="AC85">
         <v>0.76395976089809003</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6969,62 +6989,62 @@
       <c r="F86">
         <v>8.3144100000000005</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>4.3458641236638798</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>58.940114026135497</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>0.73432227470630196</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>1.58967349379148</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>11.738838574397001</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>5.9545276663008503E-2</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>4.2599142416026403</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>58.897977761019398</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>0.72471962263109702</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>1.58769177679426</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>14.1482947620527</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.101441824418167</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>4.0851809648847297</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>58.812316123146203</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>0.70519774753315301</v>
       </c>
-      <c r="Z86">
+      <c r="AA86">
         <v>1.5836630114702199</v>
       </c>
-      <c r="AA86">
+      <c r="AB86">
         <v>19.0466397589351</v>
       </c>
-      <c r="AB86">
+      <c r="AC86">
         <v>0.18661612479953299</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7043,62 +7063,62 @@
       <c r="F87">
         <v>8.2378599999999995</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>4.9022565446557502</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>99.821113804873704</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>2.7750326968675401</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>2.2905267765575501</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>18.467016488984999</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>0.17786849394955501</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>4.8049726122128096</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>99.773421109192995</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>2.7641637610021901</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>2.2882837342420101</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>21.1942031629249</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.22528986118891001</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>4.6023764616398797</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>99.674099912848007</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>2.7415289382535</v>
       </c>
-      <c r="Z87">
+      <c r="AA87">
         <v>2.2836125441771098</v>
       </c>
-      <c r="AA87">
+      <c r="AB87">
         <v>26.873635605256201</v>
       </c>
-      <c r="AB87">
+      <c r="AC87">
         <v>0.32404600946892598</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7117,62 +7137,62 @@
       <c r="F88">
         <v>7.96082</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>19.646775420990199</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>79.476615109859196</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>18.527583101878999</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>1.32722460682197</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>37.889266638609399</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>0.52040730196975105</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>19.4772369173639</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>79.393500169328107</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>18.508641606851601</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>1.3233156156021599</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>42.641985162611498</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.60304939342085995</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>19.039459221370699</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>79.178883038764596</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>18.459731395457499</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>1.3132219251821999</v>
       </c>
-      <c r="AA88">
+      <c r="AB88">
         <v>54.914325195341199</v>
       </c>
-      <c r="AB88">
+      <c r="AC88">
         <v>0.81644554599795904</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7191,62 +7211,62 @@
       <c r="F89">
         <v>7.9248799999999999</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>3.58290217442703</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>75.890569186933106</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>1.17810124424425</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>2.4715133430364999</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>14.1824054104317</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>0.108808250397096</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>3.4870349982817999</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>75.843571045072906</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>1.1673905938526701</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>2.46930296638575</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>16.869875773586099</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.155539015200926</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>3.28868911660201</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>75.7463335101898</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>1.1452306275252799</v>
       </c>
-      <c r="Z89">
+      <c r="AA89">
         <v>2.46472977331522</v>
       </c>
-      <c r="AA89">
+      <c r="AB89">
         <v>22.430159283560702</v>
       </c>
-      <c r="AB89">
+      <c r="AC89">
         <v>0.25222335617436897</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7265,62 +7285,62 @@
       <c r="F90">
         <v>6.6385500000000004</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>7.0841764437016197</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>55.837551578627803</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2.3927887864133601</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>1.1293198639575699</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>15.9277538003941</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>0.161524236308806</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>6.9986988137396198</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>55.795646831451897</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>2.38323889616274</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>1.12734903551527</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>18.3239712177879</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.203190583252123</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>6.8263267975178996</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>55.711142783279698</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>2.3639808301877401</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>1.12337471296588</v>
       </c>
-      <c r="AA90">
+      <c r="AB90">
         <v>23.156122363361099</v>
       </c>
-      <c r="AB90">
+      <c r="AC90">
         <v>0.28721387957428102</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7339,62 +7359,62 @@
       <c r="F91">
         <v>6.1791299999999998</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>2.9023634019075999</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>117.80537058493999</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>2.6353748927954799</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>2.74974635482232</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>17.308522866790401</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>0.193522149154779</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>2.7819391166020102</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>117.74633351019</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>2.62192062752528</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>2.7469697733152199</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>20.684409283560701</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.25222335617436897</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>2.5448685627847398</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>117.63011150421001</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>2.59543419158158</v>
       </c>
-      <c r="Z91">
+      <c r="AA91">
         <v>2.7415037187404399</v>
       </c>
-      <c r="AA91">
+      <c r="AB91">
         <v>27.330271955006602</v>
       </c>
-      <c r="AB91">
+      <c r="AC91">
         <v>0.367784163718817</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7413,62 +7433,62 @@
       <c r="F92">
         <v>4.9192600000000004</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>3.0463177541980602</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>74.899366868660593</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>0.40291619357863201</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>1.75723710812383</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>10.6737121404816</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>0.10006061954711799</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>2.9518673343505402</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>74.853063280621001</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>0.39236382866082398</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>1.7550593971378701</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>13.321466192850499</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.146100781915424</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>2.7610774862585599</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>74.7595300327811</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>0.371048051526852</v>
       </c>
-      <c r="Z92">
+      <c r="AA92">
         <v>1.75066042094622</v>
       </c>
-      <c r="AA92">
+      <c r="AB92">
         <v>18.669929378635601</v>
       </c>
-      <c r="AB92">
+      <c r="AC92">
         <v>0.239101909899402</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7487,62 +7507,62 @@
       <c r="F93">
         <v>4.5670400000000004</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>5.4512705610682</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>49.8780672181624</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>0.16386210571644</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>1.18500536107029</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>11.539459004571301</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>0.121239094236538</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>5.3672096874039097</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>49.836857024807202</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>0.154470500939591</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>1.1830671982927801</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>13.895960111179599</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.16221483874433101</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>5.2000324442738002</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>49.7548996739771</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>0.13579281503507201</v>
       </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>1.1792126498476201</v>
       </c>
-      <c r="AA93">
+      <c r="AB93">
         <v>18.582484783872498</v>
       </c>
-      <c r="AB93">
+      <c r="AC93">
         <v>0.24370592613623199</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7561,62 +7581,62 @@
       <c r="F94">
         <v>4.4674899999999997</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>1.4851996864502801</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>55.974610199224998</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>0.13631378657006901</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>1.50774588847603</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>5.9193418053822304</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>2.5245355698620499E-2</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>1.3926382749997099</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>55.9292326829462</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>0.12597246895061701</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>1.5056117317097799</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>8.5141407767037194</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>7.0364714819560401E-2</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>1.20798770419781</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>55.838709168328798</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>0.105342595536304</v>
       </c>
-      <c r="Z94">
+      <c r="AA94">
         <v>1.5013543067322199</v>
       </c>
-      <c r="AA94">
+      <c r="AB94">
         <v>13.690499949084799</v>
       </c>
-      <c r="AB94">
+      <c r="AC94">
         <v>0.16037323224959901</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7635,62 +7655,62 @@
       <c r="F95">
         <v>4.4001799999999998</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>3.7472740736636299</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>57.879456325803602</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>2.90910867666397</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>1.31912069239987</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>11.2931663830002</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>0.119857889365489</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>3.6617964437016202</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>57.837551578627803</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>2.8995587864133601</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>1.3171498639575701</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>13.689383800394101</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.161524236308806</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>3.4880076711821899</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>57.752352976634903</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>2.8801424349645899</v>
       </c>
-      <c r="Z95">
+      <c r="AA95">
         <v>1.3131428757433901</v>
       </c>
-      <c r="AA95">
+      <c r="AB95">
         <v>18.561251256752801</v>
       </c>
-      <c r="AB95">
+      <c r="AC95">
         <v>0.24623813506648901</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7709,62 +7729,62 @@
       <c r="F96">
         <v>3.4417</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>3.1893168805337702</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>99.858156675305395</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>0.93529458880178296</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>1.3207389453463201</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>11.5526532470899</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>0.14103636405490999</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>3.08872718339616</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>99.808843354043205</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>0.92405632016431805</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>1.31841968314627</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>14.3725113128628</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.19006913697715599</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>2.88518652862476</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>99.709059121817901</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>0.90131597376644201</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>1.31372671597151</v>
       </c>
-      <c r="AA96">
+      <c r="AB96">
         <v>20.0784212957177</v>
       </c>
-      <c r="AB96">
+      <c r="AC96">
         <v>0.28928568688085499</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7783,62 +7803,62 @@
       <c r="F97">
         <v>2.8273600000000001</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>4.9130260068694804</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>50.816946481950197</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>4.8109529840249303</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>1.1326507825688099</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>13.2948143536982</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>0.182012108562702</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>4.8266038727089997</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>50.774578698893897</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <v>4.8012975701251399</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>1.1306581770166599</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>15.7175093116157</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.224138857129702</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>4.65187059599109</v>
       </c>
-      <c r="X97">
+      <c r="Y97">
         <v>50.688917061020703</v>
       </c>
-      <c r="Y97">
+      <c r="Z97">
         <v>4.7817756950271999</v>
       </c>
-      <c r="Z97">
+      <c r="AA97">
         <v>1.1266294116926201</v>
       </c>
-      <c r="AA97">
+      <c r="AB97">
         <v>20.615854308498101</v>
       </c>
-      <c r="AB97">
+      <c r="AC97">
         <v>0.30931315751106803</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7857,58 +7877,58 @@
       <c r="F98">
         <v>2.3816199999999998</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>1.9064266446562499</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>49.942429205537401</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>1.0589098929521901</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>1.0342923793407801</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>5.6736608717785897</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>5.7243268544593197E-2</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>1.8200045104957701</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>49.900061422481201</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <v>1.0492544790524001</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>1.0322997737886199</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>8.0963558296960993</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>9.9370017111593101E-2</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>1.64668799007558</v>
       </c>
-      <c r="X98">
+      <c r="Y98">
         <v>49.815094338428601</v>
       </c>
-      <c r="Y98">
+      <c r="Z98">
         <v>1.0298908894282199</v>
       </c>
-      <c r="Z98">
+      <c r="AA98">
         <v>1.0283036741293801</v>
       </c>
-      <c r="AA98">
+      <c r="AB98">
         <v>12.954984515793001</v>
       </c>
-      <c r="AB98">
+      <c r="AC98">
         <v>0.183853715057435</v>
       </c>
     </row>
